--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,15 @@
     <t>['33', '54', '63']</t>
   </si>
   <si>
+    <t>['45+2', '70']</t>
+  </si>
+  <si>
+    <t>['38', '47']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -341,6 +350,15 @@
   </si>
   <si>
     <t>['39', '49', '75']</t>
+  </si>
+  <si>
+    <t>['22', '40']</t>
+  </si>
+  <si>
+    <t>['8', '23', '31', '90+4']</t>
+  </si>
+  <si>
+    <t>['90+3', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1042,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1167,7 +1185,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1248,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1579,7 +1597,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1657,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -1785,7 +1803,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -1991,7 +2009,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2197,7 +2215,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2275,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2403,7 +2421,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2609,7 +2627,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2690,7 +2708,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2815,7 +2833,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -2893,10 +2911,10 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3227,7 +3245,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3433,7 +3451,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3639,7 +3657,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4463,7 +4481,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4620,6 +4638,830 @@
       </c>
       <c r="BP19">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7321414</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20">
+        <v>3.22</v>
+      </c>
+      <c r="R20">
+        <v>2.14</v>
+      </c>
+      <c r="S20">
+        <v>3.75</v>
+      </c>
+      <c r="T20">
+        <v>1.47</v>
+      </c>
+      <c r="U20">
+        <v>2.76</v>
+      </c>
+      <c r="V20">
+        <v>3.33</v>
+      </c>
+      <c r="W20">
+        <v>1.35</v>
+      </c>
+      <c r="X20">
+        <v>6.85</v>
+      </c>
+      <c r="Y20">
+        <v>1.07</v>
+      </c>
+      <c r="Z20">
+        <v>2.43</v>
+      </c>
+      <c r="AA20">
+        <v>3.35</v>
+      </c>
+      <c r="AB20">
+        <v>2.72</v>
+      </c>
+      <c r="AC20">
+        <v>1.07</v>
+      </c>
+      <c r="AD20">
+        <v>7.5</v>
+      </c>
+      <c r="AE20">
+        <v>1.36</v>
+      </c>
+      <c r="AF20">
+        <v>3</v>
+      </c>
+      <c r="AG20">
+        <v>2.16</v>
+      </c>
+      <c r="AH20">
+        <v>1.66</v>
+      </c>
+      <c r="AI20">
+        <v>1.83</v>
+      </c>
+      <c r="AJ20">
+        <v>1.83</v>
+      </c>
+      <c r="AK20">
+        <v>1.43</v>
+      </c>
+      <c r="AL20">
+        <v>1.35</v>
+      </c>
+      <c r="AM20">
+        <v>1.56</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>2</v>
+      </c>
+      <c r="AR20">
+        <v>2.28</v>
+      </c>
+      <c r="AS20">
+        <v>1.29</v>
+      </c>
+      <c r="AT20">
+        <v>3.57</v>
+      </c>
+      <c r="AU20">
+        <v>3</v>
+      </c>
+      <c r="AV20">
+        <v>6</v>
+      </c>
+      <c r="AW20">
+        <v>3</v>
+      </c>
+      <c r="AX20">
+        <v>3</v>
+      </c>
+      <c r="AY20">
+        <v>6</v>
+      </c>
+      <c r="AZ20">
+        <v>9</v>
+      </c>
+      <c r="BA20">
+        <v>4</v>
+      </c>
+      <c r="BB20">
+        <v>6</v>
+      </c>
+      <c r="BC20">
+        <v>10</v>
+      </c>
+      <c r="BD20">
+        <v>2.01</v>
+      </c>
+      <c r="BE20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF20">
+        <v>2.11</v>
+      </c>
+      <c r="BG20">
+        <v>1.53</v>
+      </c>
+      <c r="BH20">
+        <v>2.46</v>
+      </c>
+      <c r="BI20">
+        <v>1.88</v>
+      </c>
+      <c r="BJ20">
+        <v>1.92</v>
+      </c>
+      <c r="BK20">
+        <v>2.36</v>
+      </c>
+      <c r="BL20">
+        <v>1.57</v>
+      </c>
+      <c r="BM20">
+        <v>3.28</v>
+      </c>
+      <c r="BN20">
+        <v>1.27</v>
+      </c>
+      <c r="BO20">
+        <v>4.75</v>
+      </c>
+      <c r="BP20">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7321415</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21">
+        <v>2.63</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>1.4</v>
+      </c>
+      <c r="U21">
+        <v>2.75</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1.36</v>
+      </c>
+      <c r="X21">
+        <v>8</v>
+      </c>
+      <c r="Y21">
+        <v>1.08</v>
+      </c>
+      <c r="Z21">
+        <v>2.04</v>
+      </c>
+      <c r="AA21">
+        <v>3.5</v>
+      </c>
+      <c r="AB21">
+        <v>3.3</v>
+      </c>
+      <c r="AC21">
+        <v>1.06</v>
+      </c>
+      <c r="AD21">
+        <v>8.5</v>
+      </c>
+      <c r="AE21">
+        <v>1.3</v>
+      </c>
+      <c r="AF21">
+        <v>3.3</v>
+      </c>
+      <c r="AG21">
+        <v>1.99</v>
+      </c>
+      <c r="AH21">
+        <v>1.88</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
+        <v>1.91</v>
+      </c>
+      <c r="AK21">
+        <v>1.25</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.66</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0.5</v>
+      </c>
+      <c r="AP21">
+        <v>1.5</v>
+      </c>
+      <c r="AQ21">
+        <v>0.33</v>
+      </c>
+      <c r="AR21">
+        <v>2.1</v>
+      </c>
+      <c r="AS21">
+        <v>1.38</v>
+      </c>
+      <c r="AT21">
+        <v>3.48</v>
+      </c>
+      <c r="AU21">
+        <v>5</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>5</v>
+      </c>
+      <c r="AX21">
+        <v>11</v>
+      </c>
+      <c r="AY21">
+        <v>10</v>
+      </c>
+      <c r="AZ21">
+        <v>15</v>
+      </c>
+      <c r="BA21">
+        <v>3</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>7</v>
+      </c>
+      <c r="BD21">
+        <v>1.69</v>
+      </c>
+      <c r="BE21">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF21">
+        <v>2.59</v>
+      </c>
+      <c r="BG21">
+        <v>1.36</v>
+      </c>
+      <c r="BH21">
+        <v>2.89</v>
+      </c>
+      <c r="BI21">
+        <v>1.67</v>
+      </c>
+      <c r="BJ21">
+        <v>2.12</v>
+      </c>
+      <c r="BK21">
+        <v>2.11</v>
+      </c>
+      <c r="BL21">
+        <v>1.65</v>
+      </c>
+      <c r="BM21">
+        <v>2.79</v>
+      </c>
+      <c r="BN21">
+        <v>1.36</v>
+      </c>
+      <c r="BO21">
+        <v>3.95</v>
+      </c>
+      <c r="BP21">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7321417</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45381.1875</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22">
+        <v>2.74</v>
+      </c>
+      <c r="R22">
+        <v>1.97</v>
+      </c>
+      <c r="S22">
+        <v>3.37</v>
+      </c>
+      <c r="T22">
+        <v>1.45</v>
+      </c>
+      <c r="U22">
+        <v>2.64</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>1.36</v>
+      </c>
+      <c r="X22">
+        <v>7.8</v>
+      </c>
+      <c r="Y22">
+        <v>1.06</v>
+      </c>
+      <c r="Z22">
+        <v>2.36</v>
+      </c>
+      <c r="AA22">
+        <v>3.3</v>
+      </c>
+      <c r="AB22">
+        <v>2.84</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>7.9</v>
+      </c>
+      <c r="AE22">
+        <v>1.32</v>
+      </c>
+      <c r="AF22">
+        <v>2.98</v>
+      </c>
+      <c r="AG22">
+        <v>1.99</v>
+      </c>
+      <c r="AH22">
+        <v>1.88</v>
+      </c>
+      <c r="AI22">
+        <v>1.82</v>
+      </c>
+      <c r="AJ22">
+        <v>1.92</v>
+      </c>
+      <c r="AK22">
+        <v>1.34</v>
+      </c>
+      <c r="AL22">
+        <v>1.28</v>
+      </c>
+      <c r="AM22">
+        <v>1.52</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>2.9</v>
+      </c>
+      <c r="AS22">
+        <v>1.17</v>
+      </c>
+      <c r="AT22">
+        <v>4.07</v>
+      </c>
+      <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>6</v>
+      </c>
+      <c r="AW22">
+        <v>11</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>16</v>
+      </c>
+      <c r="AZ22">
+        <v>8</v>
+      </c>
+      <c r="BA22">
+        <v>6</v>
+      </c>
+      <c r="BB22">
+        <v>2</v>
+      </c>
+      <c r="BC22">
+        <v>8</v>
+      </c>
+      <c r="BD22">
+        <v>2.1</v>
+      </c>
+      <c r="BE22">
+        <v>8</v>
+      </c>
+      <c r="BF22">
+        <v>1.95</v>
+      </c>
+      <c r="BG22">
+        <v>1.28</v>
+      </c>
+      <c r="BH22">
+        <v>3.18</v>
+      </c>
+      <c r="BI22">
+        <v>1.62</v>
+      </c>
+      <c r="BJ22">
+        <v>2.26</v>
+      </c>
+      <c r="BK22">
+        <v>2</v>
+      </c>
+      <c r="BL22">
+        <v>1.81</v>
+      </c>
+      <c r="BM22">
+        <v>2.52</v>
+      </c>
+      <c r="BN22">
+        <v>1.5</v>
+      </c>
+      <c r="BO22">
+        <v>3.48</v>
+      </c>
+      <c r="BP22">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7321416</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45381.1875</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23">
+        <v>3.1</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>3.4</v>
+      </c>
+      <c r="T23">
+        <v>1.45</v>
+      </c>
+      <c r="U23">
+        <v>2.6</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>1.33</v>
+      </c>
+      <c r="X23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>1.08</v>
+      </c>
+      <c r="Z23">
+        <v>2.36</v>
+      </c>
+      <c r="AA23">
+        <v>3.25</v>
+      </c>
+      <c r="AB23">
+        <v>2.85</v>
+      </c>
+      <c r="AC23">
+        <v>1.07</v>
+      </c>
+      <c r="AD23">
+        <v>8</v>
+      </c>
+      <c r="AE23">
+        <v>1.36</v>
+      </c>
+      <c r="AF23">
+        <v>3</v>
+      </c>
+      <c r="AG23">
+        <v>2.1</v>
+      </c>
+      <c r="AH23">
+        <v>1.68</v>
+      </c>
+      <c r="AI23">
+        <v>1.83</v>
+      </c>
+      <c r="AJ23">
+        <v>1.9</v>
+      </c>
+      <c r="AK23">
+        <v>1.36</v>
+      </c>
+      <c r="AL23">
+        <v>1.28</v>
+      </c>
+      <c r="AM23">
+        <v>1.45</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23">
+        <v>1.5</v>
+      </c>
+      <c r="AR23">
+        <v>1.55</v>
+      </c>
+      <c r="AS23">
+        <v>0.73</v>
+      </c>
+      <c r="AT23">
+        <v>2.28</v>
+      </c>
+      <c r="AU23">
+        <v>6</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>6</v>
+      </c>
+      <c r="AX23">
+        <v>13</v>
+      </c>
+      <c r="AY23">
+        <v>12</v>
+      </c>
+      <c r="AZ23">
+        <v>18</v>
+      </c>
+      <c r="BA23">
+        <v>4</v>
+      </c>
+      <c r="BB23">
+        <v>6</v>
+      </c>
+      <c r="BC23">
+        <v>10</v>
+      </c>
+      <c r="BD23">
+        <v>1.95</v>
+      </c>
+      <c r="BE23">
+        <v>7.2</v>
+      </c>
+      <c r="BF23">
+        <v>2.27</v>
+      </c>
+      <c r="BG23">
+        <v>1.39</v>
+      </c>
+      <c r="BH23">
+        <v>2.76</v>
+      </c>
+      <c r="BI23">
+        <v>1.77</v>
+      </c>
+      <c r="BJ23">
+        <v>2.04</v>
+      </c>
+      <c r="BK23">
+        <v>2.21</v>
+      </c>
+      <c r="BL23">
+        <v>1.65</v>
+      </c>
+      <c r="BM23">
+        <v>2.93</v>
+      </c>
+      <c r="BN23">
+        <v>1.33</v>
+      </c>
+      <c r="BO23">
+        <v>4.25</v>
+      </c>
+      <c r="BP23">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>['90+3', '90+7']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['45+5', '77']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1469,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2502,7 +2508,7 @@
         <v>3</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3323,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -5462,6 +5468,418 @@
       </c>
       <c r="BP23">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7321418</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45382.08333333334</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24">
+        <v>3.25</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>3.25</v>
+      </c>
+      <c r="T24">
+        <v>1.48</v>
+      </c>
+      <c r="U24">
+        <v>2.5</v>
+      </c>
+      <c r="V24">
+        <v>3.2</v>
+      </c>
+      <c r="W24">
+        <v>1.3</v>
+      </c>
+      <c r="X24">
+        <v>7.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.07</v>
+      </c>
+      <c r="Z24">
+        <v>2.62</v>
+      </c>
+      <c r="AA24">
+        <v>3.2</v>
+      </c>
+      <c r="AB24">
+        <v>2.62</v>
+      </c>
+      <c r="AC24">
+        <v>1.07</v>
+      </c>
+      <c r="AD24">
+        <v>8</v>
+      </c>
+      <c r="AE24">
+        <v>1.38</v>
+      </c>
+      <c r="AF24">
+        <v>2.9</v>
+      </c>
+      <c r="AG24">
+        <v>2.23</v>
+      </c>
+      <c r="AH24">
+        <v>1.62</v>
+      </c>
+      <c r="AI24">
+        <v>1.87</v>
+      </c>
+      <c r="AJ24">
+        <v>1.87</v>
+      </c>
+      <c r="AK24">
+        <v>1.4</v>
+      </c>
+      <c r="AL24">
+        <v>1.28</v>
+      </c>
+      <c r="AM24">
+        <v>1.4</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>0.5</v>
+      </c>
+      <c r="AR24">
+        <v>1.96</v>
+      </c>
+      <c r="AS24">
+        <v>1.3</v>
+      </c>
+      <c r="AT24">
+        <v>3.26</v>
+      </c>
+      <c r="AU24">
+        <v>7</v>
+      </c>
+      <c r="AV24">
+        <v>4</v>
+      </c>
+      <c r="AW24">
+        <v>9</v>
+      </c>
+      <c r="AX24">
+        <v>2</v>
+      </c>
+      <c r="AY24">
+        <v>16</v>
+      </c>
+      <c r="AZ24">
+        <v>6</v>
+      </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>5</v>
+      </c>
+      <c r="BD24">
+        <v>1.86</v>
+      </c>
+      <c r="BE24">
+        <v>7.3</v>
+      </c>
+      <c r="BF24">
+        <v>2.39</v>
+      </c>
+      <c r="BG24">
+        <v>1.34</v>
+      </c>
+      <c r="BH24">
+        <v>2.88</v>
+      </c>
+      <c r="BI24">
+        <v>1.71</v>
+      </c>
+      <c r="BJ24">
+        <v>2.15</v>
+      </c>
+      <c r="BK24">
+        <v>2.12</v>
+      </c>
+      <c r="BL24">
+        <v>1.72</v>
+      </c>
+      <c r="BM24">
+        <v>2.8</v>
+      </c>
+      <c r="BN24">
+        <v>1.38</v>
+      </c>
+      <c r="BO24">
+        <v>3.95</v>
+      </c>
+      <c r="BP24">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7321419</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45382.1875</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25">
+        <v>2.9</v>
+      </c>
+      <c r="R25">
+        <v>1.95</v>
+      </c>
+      <c r="S25">
+        <v>3.75</v>
+      </c>
+      <c r="T25">
+        <v>1.48</v>
+      </c>
+      <c r="U25">
+        <v>2.5</v>
+      </c>
+      <c r="V25">
+        <v>3.2</v>
+      </c>
+      <c r="W25">
+        <v>1.3</v>
+      </c>
+      <c r="X25">
+        <v>8</v>
+      </c>
+      <c r="Y25">
+        <v>1.06</v>
+      </c>
+      <c r="Z25">
+        <v>2.2</v>
+      </c>
+      <c r="AA25">
+        <v>3.25</v>
+      </c>
+      <c r="AB25">
+        <v>3.2</v>
+      </c>
+      <c r="AC25">
+        <v>1.07</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
+        <v>1.42</v>
+      </c>
+      <c r="AF25">
+        <v>2.7</v>
+      </c>
+      <c r="AG25">
+        <v>2.28</v>
+      </c>
+      <c r="AH25">
+        <v>1.58</v>
+      </c>
+      <c r="AI25">
+        <v>1.95</v>
+      </c>
+      <c r="AJ25">
+        <v>1.78</v>
+      </c>
+      <c r="AK25">
+        <v>1.28</v>
+      </c>
+      <c r="AL25">
+        <v>1.28</v>
+      </c>
+      <c r="AM25">
+        <v>1.53</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>1.5</v>
+      </c>
+      <c r="AR25">
+        <v>1.68</v>
+      </c>
+      <c r="AS25">
+        <v>1.67</v>
+      </c>
+      <c r="AT25">
+        <v>3.35</v>
+      </c>
+      <c r="AU25">
+        <v>6</v>
+      </c>
+      <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>9</v>
+      </c>
+      <c r="AX25">
+        <v>6</v>
+      </c>
+      <c r="AY25">
+        <v>15</v>
+      </c>
+      <c r="AZ25">
+        <v>11</v>
+      </c>
+      <c r="BA25">
+        <v>10</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>14</v>
+      </c>
+      <c r="BD25">
+        <v>1.61</v>
+      </c>
+      <c r="BE25">
+        <v>8</v>
+      </c>
+      <c r="BF25">
+        <v>2.88</v>
+      </c>
+      <c r="BG25">
+        <v>1.48</v>
+      </c>
+      <c r="BH25">
+        <v>2.61</v>
+      </c>
+      <c r="BI25">
+        <v>1.81</v>
+      </c>
+      <c r="BJ25">
+        <v>2</v>
+      </c>
+      <c r="BK25">
+        <v>2.28</v>
+      </c>
+      <c r="BL25">
+        <v>1.62</v>
+      </c>
+      <c r="BM25">
+        <v>3.08</v>
+      </c>
+      <c r="BN25">
+        <v>1.3</v>
+      </c>
+      <c r="BO25">
+        <v>4.4</v>
+      </c>
+      <c r="BP25">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,12 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['49', '60']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -365,6 +371,9 @@
   </si>
   <si>
     <t>['45+5', '77']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1191,7 +1200,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1603,7 +1612,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1684,7 +1693,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1809,7 +1818,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2015,7 +2024,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2221,7 +2230,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2427,7 +2436,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2505,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -2633,7 +2642,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2714,7 +2723,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2839,7 +2848,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3251,7 +3260,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3457,7 +3466,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3535,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -3663,7 +3672,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3744,7 +3753,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4153,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4487,7 +4496,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4693,7 +4702,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -4774,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>2.28</v>
@@ -5105,7 +5114,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5311,7 +5320,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5517,7 +5526,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -5723,7 +5732,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -5880,6 +5889,418 @@
       </c>
       <c r="BP25">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7321420</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45384.3125</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26">
+        <v>1.95</v>
+      </c>
+      <c r="R26">
+        <v>2.6</v>
+      </c>
+      <c r="S26">
+        <v>5.5</v>
+      </c>
+      <c r="T26">
+        <v>1.25</v>
+      </c>
+      <c r="U26">
+        <v>3.75</v>
+      </c>
+      <c r="V26">
+        <v>2.2</v>
+      </c>
+      <c r="W26">
+        <v>1.62</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>1.17</v>
+      </c>
+      <c r="Z26">
+        <v>1.73</v>
+      </c>
+      <c r="AA26">
+        <v>3.8</v>
+      </c>
+      <c r="AB26">
+        <v>4.2</v>
+      </c>
+      <c r="AC26">
+        <v>1.01</v>
+      </c>
+      <c r="AD26">
+        <v>11</v>
+      </c>
+      <c r="AE26">
+        <v>1.15</v>
+      </c>
+      <c r="AF26">
+        <v>5.25</v>
+      </c>
+      <c r="AG26">
+        <v>1.78</v>
+      </c>
+      <c r="AH26">
+        <v>1.95</v>
+      </c>
+      <c r="AI26">
+        <v>1.67</v>
+      </c>
+      <c r="AJ26">
+        <v>2.1</v>
+      </c>
+      <c r="AK26">
+        <v>1.15</v>
+      </c>
+      <c r="AL26">
+        <v>1.13</v>
+      </c>
+      <c r="AM26">
+        <v>2.55</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>2</v>
+      </c>
+      <c r="AP26">
+        <v>2.33</v>
+      </c>
+      <c r="AQ26">
+        <v>1.67</v>
+      </c>
+      <c r="AR26">
+        <v>1.39</v>
+      </c>
+      <c r="AS26">
+        <v>1.7</v>
+      </c>
+      <c r="AT26">
+        <v>3.09</v>
+      </c>
+      <c r="AU26">
+        <v>9</v>
+      </c>
+      <c r="AV26">
+        <v>3</v>
+      </c>
+      <c r="AW26">
+        <v>12</v>
+      </c>
+      <c r="AX26">
+        <v>10</v>
+      </c>
+      <c r="AY26">
+        <v>21</v>
+      </c>
+      <c r="AZ26">
+        <v>13</v>
+      </c>
+      <c r="BA26">
+        <v>14</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>17</v>
+      </c>
+      <c r="BD26">
+        <v>1.51</v>
+      </c>
+      <c r="BE26">
+        <v>8</v>
+      </c>
+      <c r="BF26">
+        <v>3.26</v>
+      </c>
+      <c r="BG26">
+        <v>1.55</v>
+      </c>
+      <c r="BH26">
+        <v>2.43</v>
+      </c>
+      <c r="BI26">
+        <v>1.92</v>
+      </c>
+      <c r="BJ26">
+        <v>1.88</v>
+      </c>
+      <c r="BK26">
+        <v>2.46</v>
+      </c>
+      <c r="BL26">
+        <v>1.54</v>
+      </c>
+      <c r="BM26">
+        <v>3.34</v>
+      </c>
+      <c r="BN26">
+        <v>1.26</v>
+      </c>
+      <c r="BO26">
+        <v>4.9</v>
+      </c>
+      <c r="BP26">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7321421</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45384.3125</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>2.3</v>
+      </c>
+      <c r="S27">
+        <v>2.5</v>
+      </c>
+      <c r="T27">
+        <v>1.33</v>
+      </c>
+      <c r="U27">
+        <v>3.25</v>
+      </c>
+      <c r="V27">
+        <v>2.5</v>
+      </c>
+      <c r="W27">
+        <v>1.5</v>
+      </c>
+      <c r="X27">
+        <v>6.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.11</v>
+      </c>
+      <c r="Z27">
+        <v>4.1</v>
+      </c>
+      <c r="AA27">
+        <v>3.5</v>
+      </c>
+      <c r="AB27">
+        <v>1.85</v>
+      </c>
+      <c r="AC27">
+        <v>1.04</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>1.22</v>
+      </c>
+      <c r="AF27">
+        <v>4.2</v>
+      </c>
+      <c r="AG27">
+        <v>1.75</v>
+      </c>
+      <c r="AH27">
+        <v>2</v>
+      </c>
+      <c r="AI27">
+        <v>1.62</v>
+      </c>
+      <c r="AJ27">
+        <v>2.2</v>
+      </c>
+      <c r="AK27">
+        <v>1.85</v>
+      </c>
+      <c r="AL27">
+        <v>1.22</v>
+      </c>
+      <c r="AM27">
+        <v>1.25</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <v>2</v>
+      </c>
+      <c r="AQ27">
+        <v>1.33</v>
+      </c>
+      <c r="AR27">
+        <v>1.56</v>
+      </c>
+      <c r="AS27">
+        <v>1.4</v>
+      </c>
+      <c r="AT27">
+        <v>2.96</v>
+      </c>
+      <c r="AU27">
+        <v>3</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
+        <v>4</v>
+      </c>
+      <c r="AX27">
+        <v>6</v>
+      </c>
+      <c r="AY27">
+        <v>7</v>
+      </c>
+      <c r="AZ27">
+        <v>12</v>
+      </c>
+      <c r="BA27">
+        <v>2</v>
+      </c>
+      <c r="BB27">
+        <v>7</v>
+      </c>
+      <c r="BC27">
+        <v>9</v>
+      </c>
+      <c r="BD27">
+        <v>2.78</v>
+      </c>
+      <c r="BE27">
+        <v>7.5</v>
+      </c>
+      <c r="BF27">
+        <v>1.64</v>
+      </c>
+      <c r="BG27">
+        <v>1.55</v>
+      </c>
+      <c r="BH27">
+        <v>2.43</v>
+      </c>
+      <c r="BI27">
+        <v>1.9</v>
+      </c>
+      <c r="BJ27">
+        <v>1.9</v>
+      </c>
+      <c r="BK27">
+        <v>2.39</v>
+      </c>
+      <c r="BL27">
+        <v>1.56</v>
+      </c>
+      <c r="BM27">
+        <v>3.34</v>
+      </c>
+      <c r="BN27">
+        <v>1.26</v>
+      </c>
+      <c r="BO27">
+        <v>4.85</v>
+      </c>
+      <c r="BP27">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,18 @@
     <t>['49', '60']</t>
   </si>
   <si>
+    <t>['67', '78']</t>
+  </si>
+  <si>
+    <t>['16', '34', '39', '45+2', '80']</t>
+  </si>
+  <si>
+    <t>['29', '90+8']</t>
+  </si>
+  <si>
+    <t>['14', '65', '90+1']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -374,6 +386,12 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['33', '50', '90+7']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -735,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1200,7 +1218,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1484,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1612,7 +1630,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1818,7 +1836,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -1896,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2024,7 +2042,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2105,7 +2123,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2230,7 +2248,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2311,7 +2329,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2436,7 +2454,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2517,7 +2535,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2642,7 +2660,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2848,7 +2866,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -2926,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.33</v>
@@ -3132,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3260,7 +3278,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3338,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -3466,7 +3484,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3672,7 +3690,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3956,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4371,7 +4389,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4496,7 +4514,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4577,7 +4595,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4702,7 +4720,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5114,7 +5132,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5195,7 +5213,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5320,7 +5338,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5398,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5526,7 +5544,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -5604,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -5732,7 +5750,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -5810,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -5938,7 +5956,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6301,6 +6319,830 @@
       </c>
       <c r="BP27">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7321422</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45385.3125</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28">
+        <v>2.88</v>
+      </c>
+      <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>3.8</v>
+      </c>
+      <c r="T28">
+        <v>1.45</v>
+      </c>
+      <c r="U28">
+        <v>2.55</v>
+      </c>
+      <c r="V28">
+        <v>3.1</v>
+      </c>
+      <c r="W28">
+        <v>1.32</v>
+      </c>
+      <c r="X28">
+        <v>7.2</v>
+      </c>
+      <c r="Y28">
+        <v>1.06</v>
+      </c>
+      <c r="Z28">
+        <v>2.15</v>
+      </c>
+      <c r="AA28">
+        <v>2.98</v>
+      </c>
+      <c r="AB28">
+        <v>3</v>
+      </c>
+      <c r="AC28">
+        <v>1.04</v>
+      </c>
+      <c r="AD28">
+        <v>7.6</v>
+      </c>
+      <c r="AE28">
+        <v>1.4</v>
+      </c>
+      <c r="AF28">
+        <v>3.08</v>
+      </c>
+      <c r="AG28">
+        <v>2.15</v>
+      </c>
+      <c r="AH28">
+        <v>1.62</v>
+      </c>
+      <c r="AI28">
+        <v>1.87</v>
+      </c>
+      <c r="AJ28">
+        <v>1.83</v>
+      </c>
+      <c r="AK28">
+        <v>1.33</v>
+      </c>
+      <c r="AL28">
+        <v>1.28</v>
+      </c>
+      <c r="AM28">
+        <v>1.62</v>
+      </c>
+      <c r="AN28">
+        <v>2</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>1.5</v>
+      </c>
+      <c r="AQ28">
+        <v>1.67</v>
+      </c>
+      <c r="AR28">
+        <v>1.84</v>
+      </c>
+      <c r="AS28">
+        <v>1.97</v>
+      </c>
+      <c r="AT28">
+        <v>3.81</v>
+      </c>
+      <c r="AU28">
+        <v>-1</v>
+      </c>
+      <c r="AV28">
+        <v>-1</v>
+      </c>
+      <c r="AW28">
+        <v>-1</v>
+      </c>
+      <c r="AX28">
+        <v>-1</v>
+      </c>
+      <c r="AY28">
+        <v>-1</v>
+      </c>
+      <c r="AZ28">
+        <v>-1</v>
+      </c>
+      <c r="BA28">
+        <v>-1</v>
+      </c>
+      <c r="BB28">
+        <v>-1</v>
+      </c>
+      <c r="BC28">
+        <v>-1</v>
+      </c>
+      <c r="BD28">
+        <v>1.71</v>
+      </c>
+      <c r="BE28">
+        <v>8.4</v>
+      </c>
+      <c r="BF28">
+        <v>2.57</v>
+      </c>
+      <c r="BG28">
+        <v>1.47</v>
+      </c>
+      <c r="BH28">
+        <v>2.49</v>
+      </c>
+      <c r="BI28">
+        <v>1.85</v>
+      </c>
+      <c r="BJ28">
+        <v>1.89</v>
+      </c>
+      <c r="BK28">
+        <v>2.41</v>
+      </c>
+      <c r="BL28">
+        <v>1.5</v>
+      </c>
+      <c r="BM28">
+        <v>3.28</v>
+      </c>
+      <c r="BN28">
+        <v>1.27</v>
+      </c>
+      <c r="BO28">
+        <v>4.75</v>
+      </c>
+      <c r="BP28">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7321423</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45385.3125</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29">
+        <v>2.75</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>3.85</v>
+      </c>
+      <c r="T29">
+        <v>1.42</v>
+      </c>
+      <c r="U29">
+        <v>2.65</v>
+      </c>
+      <c r="V29">
+        <v>2.88</v>
+      </c>
+      <c r="W29">
+        <v>1.36</v>
+      </c>
+      <c r="X29">
+        <v>7</v>
+      </c>
+      <c r="Y29">
+        <v>1.08</v>
+      </c>
+      <c r="Z29">
+        <v>2.05</v>
+      </c>
+      <c r="AA29">
+        <v>3.05</v>
+      </c>
+      <c r="AB29">
+        <v>3.15</v>
+      </c>
+      <c r="AC29">
+        <v>1.07</v>
+      </c>
+      <c r="AD29">
+        <v>8</v>
+      </c>
+      <c r="AE29">
+        <v>1.35</v>
+      </c>
+      <c r="AF29">
+        <v>3.1</v>
+      </c>
+      <c r="AG29">
+        <v>2.07</v>
+      </c>
+      <c r="AH29">
+        <v>1.67</v>
+      </c>
+      <c r="AI29">
+        <v>1.75</v>
+      </c>
+      <c r="AJ29">
+        <v>1.93</v>
+      </c>
+      <c r="AK29">
+        <v>1.3</v>
+      </c>
+      <c r="AL29">
+        <v>1.28</v>
+      </c>
+      <c r="AM29">
+        <v>1.65</v>
+      </c>
+      <c r="AN29">
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <v>3</v>
+      </c>
+      <c r="AP29">
+        <v>2.33</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
+        <v>1.12</v>
+      </c>
+      <c r="AS29">
+        <v>1.23</v>
+      </c>
+      <c r="AT29">
+        <v>2.35</v>
+      </c>
+      <c r="AU29">
+        <v>-1</v>
+      </c>
+      <c r="AV29">
+        <v>-1</v>
+      </c>
+      <c r="AW29">
+        <v>-1</v>
+      </c>
+      <c r="AX29">
+        <v>-1</v>
+      </c>
+      <c r="AY29">
+        <v>-1</v>
+      </c>
+      <c r="AZ29">
+        <v>-1</v>
+      </c>
+      <c r="BA29">
+        <v>-1</v>
+      </c>
+      <c r="BB29">
+        <v>-1</v>
+      </c>
+      <c r="BC29">
+        <v>-1</v>
+      </c>
+      <c r="BD29">
+        <v>1.69</v>
+      </c>
+      <c r="BE29">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF29">
+        <v>2.59</v>
+      </c>
+      <c r="BG29">
+        <v>1.37</v>
+      </c>
+      <c r="BH29">
+        <v>2.75</v>
+      </c>
+      <c r="BI29">
+        <v>1.7</v>
+      </c>
+      <c r="BJ29">
+        <v>2.03</v>
+      </c>
+      <c r="BK29">
+        <v>2.21</v>
+      </c>
+      <c r="BL29">
+        <v>1.62</v>
+      </c>
+      <c r="BM29">
+        <v>2.93</v>
+      </c>
+      <c r="BN29">
+        <v>1.35</v>
+      </c>
+      <c r="BO29">
+        <v>4.15</v>
+      </c>
+      <c r="BP29">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7321424</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45385.3125</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q30">
+        <v>3.3</v>
+      </c>
+      <c r="R30">
+        <v>2.1</v>
+      </c>
+      <c r="S30">
+        <v>2.95</v>
+      </c>
+      <c r="T30">
+        <v>1.36</v>
+      </c>
+      <c r="U30">
+        <v>2.85</v>
+      </c>
+      <c r="V30">
+        <v>2.62</v>
+      </c>
+      <c r="W30">
+        <v>1.42</v>
+      </c>
+      <c r="X30">
+        <v>8.1</v>
+      </c>
+      <c r="Y30">
+        <v>1.06</v>
+      </c>
+      <c r="Z30">
+        <v>3.1</v>
+      </c>
+      <c r="AA30">
+        <v>3</v>
+      </c>
+      <c r="AB30">
+        <v>2.1</v>
+      </c>
+      <c r="AC30">
+        <v>1.06</v>
+      </c>
+      <c r="AD30">
+        <v>8.5</v>
+      </c>
+      <c r="AE30">
+        <v>1.3</v>
+      </c>
+      <c r="AF30">
+        <v>3.45</v>
+      </c>
+      <c r="AG30">
+        <v>2.08</v>
+      </c>
+      <c r="AH30">
+        <v>1.66</v>
+      </c>
+      <c r="AI30">
+        <v>1.65</v>
+      </c>
+      <c r="AJ30">
+        <v>2.05</v>
+      </c>
+      <c r="AK30">
+        <v>1.53</v>
+      </c>
+      <c r="AL30">
+        <v>1.28</v>
+      </c>
+      <c r="AM30">
+        <v>1.4</v>
+      </c>
+      <c r="AN30">
+        <v>1.5</v>
+      </c>
+      <c r="AO30">
+        <v>0.5</v>
+      </c>
+      <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
+        <v>0.33</v>
+      </c>
+      <c r="AR30">
+        <v>1.46</v>
+      </c>
+      <c r="AS30">
+        <v>1.47</v>
+      </c>
+      <c r="AT30">
+        <v>2.93</v>
+      </c>
+      <c r="AU30">
+        <v>-1</v>
+      </c>
+      <c r="AV30">
+        <v>-1</v>
+      </c>
+      <c r="AW30">
+        <v>-1</v>
+      </c>
+      <c r="AX30">
+        <v>-1</v>
+      </c>
+      <c r="AY30">
+        <v>-1</v>
+      </c>
+      <c r="AZ30">
+        <v>-1</v>
+      </c>
+      <c r="BA30">
+        <v>-1</v>
+      </c>
+      <c r="BB30">
+        <v>-1</v>
+      </c>
+      <c r="BC30">
+        <v>-1</v>
+      </c>
+      <c r="BD30">
+        <v>1.85</v>
+      </c>
+      <c r="BE30">
+        <v>7.5</v>
+      </c>
+      <c r="BF30">
+        <v>2.29</v>
+      </c>
+      <c r="BG30">
+        <v>1.28</v>
+      </c>
+      <c r="BH30">
+        <v>3.18</v>
+      </c>
+      <c r="BI30">
+        <v>1.55</v>
+      </c>
+      <c r="BJ30">
+        <v>2.29</v>
+      </c>
+      <c r="BK30">
+        <v>1.96</v>
+      </c>
+      <c r="BL30">
+        <v>1.79</v>
+      </c>
+      <c r="BM30">
+        <v>2.55</v>
+      </c>
+      <c r="BN30">
+        <v>1.45</v>
+      </c>
+      <c r="BO30">
+        <v>3.48</v>
+      </c>
+      <c r="BP30">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7321425</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45385.3125</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q31">
+        <v>3.4</v>
+      </c>
+      <c r="R31">
+        <v>1.93</v>
+      </c>
+      <c r="S31">
+        <v>3.25</v>
+      </c>
+      <c r="T31">
+        <v>1.5</v>
+      </c>
+      <c r="U31">
+        <v>2.4</v>
+      </c>
+      <c r="V31">
+        <v>3.25</v>
+      </c>
+      <c r="W31">
+        <v>1.3</v>
+      </c>
+      <c r="X31">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y31">
+        <v>1.05</v>
+      </c>
+      <c r="Z31">
+        <v>2.48</v>
+      </c>
+      <c r="AA31">
+        <v>2.97</v>
+      </c>
+      <c r="AB31">
+        <v>2.55</v>
+      </c>
+      <c r="AC31">
+        <v>1.05</v>
+      </c>
+      <c r="AD31">
+        <v>7.3</v>
+      </c>
+      <c r="AE31">
+        <v>1.43</v>
+      </c>
+      <c r="AF31">
+        <v>2.95</v>
+      </c>
+      <c r="AG31">
+        <v>2.1</v>
+      </c>
+      <c r="AH31">
+        <v>1.65</v>
+      </c>
+      <c r="AI31">
+        <v>1.85</v>
+      </c>
+      <c r="AJ31">
+        <v>1.8</v>
+      </c>
+      <c r="AK31">
+        <v>1.42</v>
+      </c>
+      <c r="AL31">
+        <v>1.31</v>
+      </c>
+      <c r="AM31">
+        <v>1.39</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1.5</v>
+      </c>
+      <c r="AP31">
+        <v>1.67</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>2.01</v>
+      </c>
+      <c r="AS31">
+        <v>1.54</v>
+      </c>
+      <c r="AT31">
+        <v>3.55</v>
+      </c>
+      <c r="AU31">
+        <v>-1</v>
+      </c>
+      <c r="AV31">
+        <v>-1</v>
+      </c>
+      <c r="AW31">
+        <v>-1</v>
+      </c>
+      <c r="AX31">
+        <v>-1</v>
+      </c>
+      <c r="AY31">
+        <v>-1</v>
+      </c>
+      <c r="AZ31">
+        <v>-1</v>
+      </c>
+      <c r="BA31">
+        <v>-1</v>
+      </c>
+      <c r="BB31">
+        <v>-1</v>
+      </c>
+      <c r="BC31">
+        <v>-1</v>
+      </c>
+      <c r="BD31">
+        <v>1.78</v>
+      </c>
+      <c r="BE31">
+        <v>8.4</v>
+      </c>
+      <c r="BF31">
+        <v>2.42</v>
+      </c>
+      <c r="BG31">
+        <v>1.43</v>
+      </c>
+      <c r="BH31">
+        <v>2.62</v>
+      </c>
+      <c r="BI31">
+        <v>1.8</v>
+      </c>
+      <c r="BJ31">
+        <v>1.95</v>
+      </c>
+      <c r="BK31">
+        <v>2.32</v>
+      </c>
+      <c r="BL31">
+        <v>1.54</v>
+      </c>
+      <c r="BM31">
+        <v>3.14</v>
+      </c>
+      <c r="BN31">
+        <v>1.29</v>
+      </c>
+      <c r="BO31">
+        <v>4.5</v>
+      </c>
+      <c r="BP31">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -6461,31 +6461,31 @@
         <v>3.81</v>
       </c>
       <c r="AU28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY28">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC28">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BD28">
         <v>1.71</v>
@@ -6667,31 +6667,31 @@
         <v>2.35</v>
       </c>
       <c r="AU29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW29">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY29">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ29">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD29">
         <v>1.69</v>
@@ -6873,31 +6873,31 @@
         <v>2.93</v>
       </c>
       <c r="AU30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY30">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ30">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB30">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BC30">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BD30">
         <v>1.85</v>
@@ -7079,31 +7079,31 @@
         <v>3.55</v>
       </c>
       <c r="AU31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX31">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY31">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ31">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD31">
         <v>1.78</v>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,12 @@
     <t>['14', '65', '90+1']</t>
   </si>
   <si>
+    <t>['18', '64', '90+6']</t>
+  </si>
+  <si>
+    <t>['45+3', '59']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -392,6 +398,12 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1218,7 +1230,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1630,7 +1642,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1708,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1836,7 +1848,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -1917,7 +1929,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2042,7 +2054,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2248,7 +2260,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2454,7 +2466,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2660,7 +2672,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2738,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -2866,7 +2878,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3278,7 +3290,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3484,7 +3496,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3690,7 +3702,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3771,7 +3783,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -3977,7 +3989,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4386,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.33</v>
@@ -4514,7 +4526,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4592,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>1.67</v>
@@ -4720,7 +4732,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5004,7 +5016,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.33</v>
@@ -5132,7 +5144,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5338,7 +5350,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5544,7 +5556,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -5750,7 +5762,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -5956,7 +5968,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6037,7 +6049,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6368,7 +6380,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6574,7 +6586,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7143,6 +7155,624 @@
       </c>
       <c r="BP31">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7321426</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45388.08333333334</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32">
+        <v>2.1</v>
+      </c>
+      <c r="R32">
+        <v>2.38</v>
+      </c>
+      <c r="S32">
+        <v>5.5</v>
+      </c>
+      <c r="T32">
+        <v>1.33</v>
+      </c>
+      <c r="U32">
+        <v>3.25</v>
+      </c>
+      <c r="V32">
+        <v>2.5</v>
+      </c>
+      <c r="W32">
+        <v>1.5</v>
+      </c>
+      <c r="X32">
+        <v>6.5</v>
+      </c>
+      <c r="Y32">
+        <v>1.11</v>
+      </c>
+      <c r="Z32">
+        <v>1.6</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>5</v>
+      </c>
+      <c r="AC32">
+        <v>1.05</v>
+      </c>
+      <c r="AD32">
+        <v>9.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.22</v>
+      </c>
+      <c r="AF32">
+        <v>4</v>
+      </c>
+      <c r="AG32">
+        <v>1.68</v>
+      </c>
+      <c r="AH32">
+        <v>2.1</v>
+      </c>
+      <c r="AI32">
+        <v>1.8</v>
+      </c>
+      <c r="AJ32">
+        <v>1.91</v>
+      </c>
+      <c r="AK32">
+        <v>1.13</v>
+      </c>
+      <c r="AL32">
+        <v>1.2</v>
+      </c>
+      <c r="AM32">
+        <v>2.35</v>
+      </c>
+      <c r="AN32">
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <v>1.67</v>
+      </c>
+      <c r="AP32">
+        <v>2.33</v>
+      </c>
+      <c r="AQ32">
+        <v>1.25</v>
+      </c>
+      <c r="AR32">
+        <v>1.94</v>
+      </c>
+      <c r="AS32">
+        <v>1.59</v>
+      </c>
+      <c r="AT32">
+        <v>3.53</v>
+      </c>
+      <c r="AU32">
+        <v>6</v>
+      </c>
+      <c r="AV32">
+        <v>3</v>
+      </c>
+      <c r="AW32">
+        <v>8</v>
+      </c>
+      <c r="AX32">
+        <v>6</v>
+      </c>
+      <c r="AY32">
+        <v>14</v>
+      </c>
+      <c r="AZ32">
+        <v>9</v>
+      </c>
+      <c r="BA32">
+        <v>3</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
+      </c>
+      <c r="BC32">
+        <v>6</v>
+      </c>
+      <c r="BD32">
+        <v>1.24</v>
+      </c>
+      <c r="BE32">
+        <v>10.5</v>
+      </c>
+      <c r="BF32">
+        <v>6.75</v>
+      </c>
+      <c r="BG32">
+        <v>1.4</v>
+      </c>
+      <c r="BH32">
+        <v>2.97</v>
+      </c>
+      <c r="BI32">
+        <v>1.68</v>
+      </c>
+      <c r="BJ32">
+        <v>2.18</v>
+      </c>
+      <c r="BK32">
+        <v>2.11</v>
+      </c>
+      <c r="BL32">
+        <v>1.74</v>
+      </c>
+      <c r="BM32">
+        <v>2.81</v>
+      </c>
+      <c r="BN32">
+        <v>1.44</v>
+      </c>
+      <c r="BO32">
+        <v>3.98</v>
+      </c>
+      <c r="BP32">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7321427</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45388.1875</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q33">
+        <v>2.93</v>
+      </c>
+      <c r="R33">
+        <v>2.18</v>
+      </c>
+      <c r="S33">
+        <v>4.07</v>
+      </c>
+      <c r="T33">
+        <v>1.43</v>
+      </c>
+      <c r="U33">
+        <v>2.68</v>
+      </c>
+      <c r="V33">
+        <v>3.17</v>
+      </c>
+      <c r="W33">
+        <v>1.3</v>
+      </c>
+      <c r="X33">
+        <v>7</v>
+      </c>
+      <c r="Y33">
+        <v>1.07</v>
+      </c>
+      <c r="Z33">
+        <v>2.15</v>
+      </c>
+      <c r="AA33">
+        <v>3.25</v>
+      </c>
+      <c r="AB33">
+        <v>3.25</v>
+      </c>
+      <c r="AC33">
+        <v>1.05</v>
+      </c>
+      <c r="AD33">
+        <v>8</v>
+      </c>
+      <c r="AE33">
+        <v>1.33</v>
+      </c>
+      <c r="AF33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>2.05</v>
+      </c>
+      <c r="AH33">
+        <v>1.72</v>
+      </c>
+      <c r="AI33">
+        <v>1.8</v>
+      </c>
+      <c r="AJ33">
+        <v>1.91</v>
+      </c>
+      <c r="AK33">
+        <v>1.35</v>
+      </c>
+      <c r="AL33">
+        <v>1.35</v>
+      </c>
+      <c r="AM33">
+        <v>1.62</v>
+      </c>
+      <c r="AN33">
+        <v>1.5</v>
+      </c>
+      <c r="AO33">
+        <v>0.5</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>1.33</v>
+      </c>
+      <c r="AR33">
+        <v>1.77</v>
+      </c>
+      <c r="AS33">
+        <v>1.35</v>
+      </c>
+      <c r="AT33">
+        <v>3.12</v>
+      </c>
+      <c r="AU33">
+        <v>3</v>
+      </c>
+      <c r="AV33">
+        <v>2</v>
+      </c>
+      <c r="AW33">
+        <v>11</v>
+      </c>
+      <c r="AX33">
+        <v>9</v>
+      </c>
+      <c r="AY33">
+        <v>14</v>
+      </c>
+      <c r="AZ33">
+        <v>11</v>
+      </c>
+      <c r="BA33">
+        <v>10</v>
+      </c>
+      <c r="BB33">
+        <v>4</v>
+      </c>
+      <c r="BC33">
+        <v>14</v>
+      </c>
+      <c r="BD33">
+        <v>1.66</v>
+      </c>
+      <c r="BE33">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF33">
+        <v>2.65</v>
+      </c>
+      <c r="BG33">
+        <v>1.34</v>
+      </c>
+      <c r="BH33">
+        <v>2.88</v>
+      </c>
+      <c r="BI33">
+        <v>1.64</v>
+      </c>
+      <c r="BJ33">
+        <v>2.12</v>
+      </c>
+      <c r="BK33">
+        <v>2.11</v>
+      </c>
+      <c r="BL33">
+        <v>1.68</v>
+      </c>
+      <c r="BM33">
+        <v>2.8</v>
+      </c>
+      <c r="BN33">
+        <v>1.38</v>
+      </c>
+      <c r="BO33">
+        <v>3.88</v>
+      </c>
+      <c r="BP33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7321428</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45388.1875</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q34">
+        <v>3.1</v>
+      </c>
+      <c r="R34">
+        <v>2.05</v>
+      </c>
+      <c r="S34">
+        <v>3.6</v>
+      </c>
+      <c r="T34">
+        <v>1.44</v>
+      </c>
+      <c r="U34">
+        <v>2.63</v>
+      </c>
+      <c r="V34">
+        <v>3.25</v>
+      </c>
+      <c r="W34">
+        <v>1.33</v>
+      </c>
+      <c r="X34">
+        <v>9</v>
+      </c>
+      <c r="Y34">
+        <v>1.07</v>
+      </c>
+      <c r="Z34">
+        <v>2.4</v>
+      </c>
+      <c r="AA34">
+        <v>3.3</v>
+      </c>
+      <c r="AB34">
+        <v>2.75</v>
+      </c>
+      <c r="AC34">
+        <v>1.06</v>
+      </c>
+      <c r="AD34">
+        <v>8.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.33</v>
+      </c>
+      <c r="AF34">
+        <v>3.25</v>
+      </c>
+      <c r="AG34">
+        <v>1.9</v>
+      </c>
+      <c r="AH34">
+        <v>1.83</v>
+      </c>
+      <c r="AI34">
+        <v>1.83</v>
+      </c>
+      <c r="AJ34">
+        <v>1.83</v>
+      </c>
+      <c r="AK34">
+        <v>1.38</v>
+      </c>
+      <c r="AL34">
+        <v>1.28</v>
+      </c>
+      <c r="AM34">
+        <v>1.57</v>
+      </c>
+      <c r="AN34">
+        <v>1.5</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>1.28</v>
+      </c>
+      <c r="AS34">
+        <v>0.78</v>
+      </c>
+      <c r="AT34">
+        <v>2.06</v>
+      </c>
+      <c r="AU34">
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>2</v>
+      </c>
+      <c r="AY34">
+        <v>7</v>
+      </c>
+      <c r="AZ34">
+        <v>6</v>
+      </c>
+      <c r="BA34">
+        <v>6</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
+        <v>9</v>
+      </c>
+      <c r="BD34">
+        <v>1.95</v>
+      </c>
+      <c r="BE34">
+        <v>7.5</v>
+      </c>
+      <c r="BF34">
+        <v>2.1</v>
+      </c>
+      <c r="BG34">
+        <v>1.35</v>
+      </c>
+      <c r="BH34">
+        <v>2.95</v>
+      </c>
+      <c r="BI34">
+        <v>1.75</v>
+      </c>
+      <c r="BJ34">
+        <v>2.09</v>
+      </c>
+      <c r="BK34">
+        <v>2.19</v>
+      </c>
+      <c r="BL34">
+        <v>1.68</v>
+      </c>
+      <c r="BM34">
+        <v>3</v>
+      </c>
+      <c r="BN34">
+        <v>1.34</v>
+      </c>
+      <c r="BO34">
+        <v>4.46</v>
+      </c>
+      <c r="BP34">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,12 @@
     <t>['45+3', '59']</t>
   </si>
   <si>
+    <t>['45+7', '90+8']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -404,6 +410,12 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['42', '70', '74']</t>
+  </si>
+  <si>
+    <t>['82', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1117,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1230,7 +1242,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1308,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -1517,7 +1529,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1642,7 +1654,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1848,7 +1860,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2054,7 +2066,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2132,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2260,7 +2272,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2466,7 +2478,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2672,7 +2684,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2878,7 +2890,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3290,7 +3302,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3371,7 +3383,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3496,7 +3508,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3574,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3702,7 +3714,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3780,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ15">
         <v>1.25</v>
@@ -4526,7 +4538,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4732,7 +4744,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -4810,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5144,7 +5156,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5350,7 +5362,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5431,7 +5443,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -5556,7 +5568,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -5637,7 +5649,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5762,7 +5774,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -5968,7 +5980,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6252,7 +6264,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6380,7 +6392,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6586,7 +6598,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7410,7 +7422,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7616,7 +7628,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7773,6 +7785,624 @@
       </c>
       <c r="BP34">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7321429</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q35">
+        <v>2.47</v>
+      </c>
+      <c r="R35">
+        <v>2.19</v>
+      </c>
+      <c r="S35">
+        <v>5.35</v>
+      </c>
+      <c r="T35">
+        <v>1.46</v>
+      </c>
+      <c r="U35">
+        <v>2.62</v>
+      </c>
+      <c r="V35">
+        <v>3.29</v>
+      </c>
+      <c r="W35">
+        <v>1.27</v>
+      </c>
+      <c r="X35">
+        <v>7</v>
+      </c>
+      <c r="Y35">
+        <v>1.07</v>
+      </c>
+      <c r="Z35">
+        <v>1.83</v>
+      </c>
+      <c r="AA35">
+        <v>3.4</v>
+      </c>
+      <c r="AB35">
+        <v>4</v>
+      </c>
+      <c r="AC35">
+        <v>1.07</v>
+      </c>
+      <c r="AD35">
+        <v>7</v>
+      </c>
+      <c r="AE35">
+        <v>1.36</v>
+      </c>
+      <c r="AF35">
+        <v>2.88</v>
+      </c>
+      <c r="AG35">
+        <v>2.2</v>
+      </c>
+      <c r="AH35">
+        <v>1.6</v>
+      </c>
+      <c r="AI35">
+        <v>2</v>
+      </c>
+      <c r="AJ35">
+        <v>1.73</v>
+      </c>
+      <c r="AK35">
+        <v>1.22</v>
+      </c>
+      <c r="AL35">
+        <v>1.3</v>
+      </c>
+      <c r="AM35">
+        <v>1.95</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>0.5</v>
+      </c>
+      <c r="AP35">
+        <v>0.67</v>
+      </c>
+      <c r="AQ35">
+        <v>1.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.71</v>
+      </c>
+      <c r="AS35">
+        <v>1.72</v>
+      </c>
+      <c r="AT35">
+        <v>3.43</v>
+      </c>
+      <c r="AU35">
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>4</v>
+      </c>
+      <c r="AX35">
+        <v>5</v>
+      </c>
+      <c r="AY35">
+        <v>7</v>
+      </c>
+      <c r="AZ35">
+        <v>9</v>
+      </c>
+      <c r="BA35">
+        <v>3</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>5</v>
+      </c>
+      <c r="BD35">
+        <v>1.59</v>
+      </c>
+      <c r="BE35">
+        <v>9</v>
+      </c>
+      <c r="BF35">
+        <v>2.83</v>
+      </c>
+      <c r="BG35">
+        <v>1.32</v>
+      </c>
+      <c r="BH35">
+        <v>2.98</v>
+      </c>
+      <c r="BI35">
+        <v>1.61</v>
+      </c>
+      <c r="BJ35">
+        <v>2.17</v>
+      </c>
+      <c r="BK35">
+        <v>2.05</v>
+      </c>
+      <c r="BL35">
+        <v>1.72</v>
+      </c>
+      <c r="BM35">
+        <v>2.69</v>
+      </c>
+      <c r="BN35">
+        <v>1.41</v>
+      </c>
+      <c r="BO35">
+        <v>3.65</v>
+      </c>
+      <c r="BP35">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7321430</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>85</v>
+      </c>
+      <c r="P36" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q36">
+        <v>3.1</v>
+      </c>
+      <c r="R36">
+        <v>2.17</v>
+      </c>
+      <c r="S36">
+        <v>3.5</v>
+      </c>
+      <c r="T36">
+        <v>1.45</v>
+      </c>
+      <c r="U36">
+        <v>2.64</v>
+      </c>
+      <c r="V36">
+        <v>3.21</v>
+      </c>
+      <c r="W36">
+        <v>1.29</v>
+      </c>
+      <c r="X36">
+        <v>7</v>
+      </c>
+      <c r="Y36">
+        <v>1.07</v>
+      </c>
+      <c r="Z36">
+        <v>2.5</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>2.8</v>
+      </c>
+      <c r="AC36">
+        <v>1.06</v>
+      </c>
+      <c r="AD36">
+        <v>9.75</v>
+      </c>
+      <c r="AE36">
+        <v>1.35</v>
+      </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
+      <c r="AG36">
+        <v>2.1</v>
+      </c>
+      <c r="AH36">
+        <v>1.67</v>
+      </c>
+      <c r="AI36">
+        <v>1.82</v>
+      </c>
+      <c r="AJ36">
+        <v>1.88</v>
+      </c>
+      <c r="AK36">
+        <v>1.4</v>
+      </c>
+      <c r="AL36">
+        <v>1.3</v>
+      </c>
+      <c r="AM36">
+        <v>1.5</v>
+      </c>
+      <c r="AN36">
+        <v>0.5</v>
+      </c>
+      <c r="AO36">
+        <v>0.5</v>
+      </c>
+      <c r="AP36">
+        <v>0.67</v>
+      </c>
+      <c r="AQ36">
+        <v>0.67</v>
+      </c>
+      <c r="AR36">
+        <v>1.88</v>
+      </c>
+      <c r="AS36">
+        <v>1.14</v>
+      </c>
+      <c r="AT36">
+        <v>3.02</v>
+      </c>
+      <c r="AU36">
+        <v>3</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
+        <v>3</v>
+      </c>
+      <c r="AY36">
+        <v>7</v>
+      </c>
+      <c r="AZ36">
+        <v>6</v>
+      </c>
+      <c r="BA36">
+        <v>5</v>
+      </c>
+      <c r="BB36">
+        <v>4</v>
+      </c>
+      <c r="BC36">
+        <v>9</v>
+      </c>
+      <c r="BD36">
+        <v>1.83</v>
+      </c>
+      <c r="BE36">
+        <v>8.5</v>
+      </c>
+      <c r="BF36">
+        <v>2.33</v>
+      </c>
+      <c r="BG36">
+        <v>1.33</v>
+      </c>
+      <c r="BH36">
+        <v>2.91</v>
+      </c>
+      <c r="BI36">
+        <v>1.64</v>
+      </c>
+      <c r="BJ36">
+        <v>2.12</v>
+      </c>
+      <c r="BK36">
+        <v>2.11</v>
+      </c>
+      <c r="BL36">
+        <v>1.68</v>
+      </c>
+      <c r="BM36">
+        <v>2.76</v>
+      </c>
+      <c r="BN36">
+        <v>1.39</v>
+      </c>
+      <c r="BO36">
+        <v>3.84</v>
+      </c>
+      <c r="BP36">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7321431</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45389.1875</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q37">
+        <v>3.4</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>3.1</v>
+      </c>
+      <c r="T37">
+        <v>1.45</v>
+      </c>
+      <c r="U37">
+        <v>2.6</v>
+      </c>
+      <c r="V37">
+        <v>2.9</v>
+      </c>
+      <c r="W37">
+        <v>1.36</v>
+      </c>
+      <c r="X37">
+        <v>7.7</v>
+      </c>
+      <c r="Y37">
+        <v>1.07</v>
+      </c>
+      <c r="Z37">
+        <v>2.8</v>
+      </c>
+      <c r="AA37">
+        <v>3.2</v>
+      </c>
+      <c r="AB37">
+        <v>2.38</v>
+      </c>
+      <c r="AC37">
+        <v>1.07</v>
+      </c>
+      <c r="AD37">
+        <v>8</v>
+      </c>
+      <c r="AE37">
+        <v>1.33</v>
+      </c>
+      <c r="AF37">
+        <v>3.1</v>
+      </c>
+      <c r="AG37">
+        <v>2</v>
+      </c>
+      <c r="AH37">
+        <v>1.73</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1.95</v>
+      </c>
+      <c r="AK37">
+        <v>1.45</v>
+      </c>
+      <c r="AL37">
+        <v>1.28</v>
+      </c>
+      <c r="AM37">
+        <v>1.36</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>1.5</v>
+      </c>
+      <c r="AP37">
+        <v>1.33</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>1.24</v>
+      </c>
+      <c r="AS37">
+        <v>1.32</v>
+      </c>
+      <c r="AT37">
+        <v>2.56</v>
+      </c>
+      <c r="AU37">
+        <v>2</v>
+      </c>
+      <c r="AV37">
+        <v>8</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>3</v>
+      </c>
+      <c r="AZ37">
+        <v>14</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
+        <v>4</v>
+      </c>
+      <c r="BD37">
+        <v>2.19</v>
+      </c>
+      <c r="BE37">
+        <v>8.5</v>
+      </c>
+      <c r="BF37">
+        <v>1.94</v>
+      </c>
+      <c r="BG37">
+        <v>1.51</v>
+      </c>
+      <c r="BH37">
+        <v>2.5</v>
+      </c>
+      <c r="BI37">
+        <v>1.86</v>
+      </c>
+      <c r="BJ37">
+        <v>1.94</v>
+      </c>
+      <c r="BK37">
+        <v>2.32</v>
+      </c>
+      <c r="BL37">
+        <v>1.58</v>
+      </c>
+      <c r="BM37">
+        <v>3.18</v>
+      </c>
+      <c r="BN37">
+        <v>1.28</v>
+      </c>
+      <c r="BO37">
+        <v>4.7</v>
+      </c>
+      <c r="BP37">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,15 @@
     <t>['46']</t>
   </si>
   <si>
+    <t>['18', '90+1']</t>
+  </si>
+  <si>
+    <t>['45+2', '65']</t>
+  </si>
+  <si>
+    <t>['9', '43', '55', '61']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -416,6 +425,15 @@
   </si>
   <si>
     <t>['82', '90+3']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['15', '73', '77', '90+4']</t>
+  </si>
+  <si>
+    <t>['35', '45+4']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1242,7 +1260,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1320,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -1654,7 +1672,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1860,7 +1878,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2066,7 +2084,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2147,7 +2165,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2272,7 +2290,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2478,7 +2496,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2684,7 +2702,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2890,7 +2908,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -2968,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0.33</v>
@@ -3174,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>1.67</v>
@@ -3302,7 +3320,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3383,7 +3401,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3508,7 +3526,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3589,7 +3607,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3714,7 +3732,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3998,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4538,7 +4556,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4616,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
         <v>1.67</v>
@@ -4744,7 +4762,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -4822,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5156,7 +5174,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5237,7 +5255,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5362,7 +5380,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5440,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -5568,7 +5586,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -5774,7 +5792,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -5980,7 +5998,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6392,7 +6410,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6598,7 +6616,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6676,10 +6694,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -6882,7 +6900,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>0.33</v>
@@ -7294,7 +7312,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
@@ -7422,7 +7440,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7628,7 +7646,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7834,7 +7852,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -7912,10 +7930,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8246,7 +8264,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8327,7 +8345,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR37">
         <v>1.24</v>
@@ -8403,6 +8421,830 @@
       </c>
       <c r="BP37">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7321432</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45395.08333333334</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>110</v>
+      </c>
+      <c r="P38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38">
+        <v>2.8</v>
+      </c>
+      <c r="R38">
+        <v>1.95</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>1.48</v>
+      </c>
+      <c r="U38">
+        <v>2.45</v>
+      </c>
+      <c r="V38">
+        <v>3.2</v>
+      </c>
+      <c r="W38">
+        <v>1.3</v>
+      </c>
+      <c r="X38">
+        <v>8.6</v>
+      </c>
+      <c r="Y38">
+        <v>1.05</v>
+      </c>
+      <c r="Z38">
+        <v>1.94</v>
+      </c>
+      <c r="AA38">
+        <v>3.15</v>
+      </c>
+      <c r="AB38">
+        <v>3.6</v>
+      </c>
+      <c r="AC38">
+        <v>1.08</v>
+      </c>
+      <c r="AD38">
+        <v>7.5</v>
+      </c>
+      <c r="AE38">
+        <v>1.42</v>
+      </c>
+      <c r="AF38">
+        <v>2.85</v>
+      </c>
+      <c r="AG38">
+        <v>2.18</v>
+      </c>
+      <c r="AH38">
+        <v>1.64</v>
+      </c>
+      <c r="AI38">
+        <v>1.91</v>
+      </c>
+      <c r="AJ38">
+        <v>1.77</v>
+      </c>
+      <c r="AK38">
+        <v>1.28</v>
+      </c>
+      <c r="AL38">
+        <v>1.28</v>
+      </c>
+      <c r="AM38">
+        <v>1.7</v>
+      </c>
+      <c r="AN38">
+        <v>0.67</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>1.25</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>1.51</v>
+      </c>
+      <c r="AS38">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT38">
+        <v>2.32</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>10</v>
+      </c>
+      <c r="AZ38">
+        <v>7</v>
+      </c>
+      <c r="BA38">
+        <v>2</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>6</v>
+      </c>
+      <c r="BD38">
+        <v>1.82</v>
+      </c>
+      <c r="BE38">
+        <v>7.5</v>
+      </c>
+      <c r="BF38">
+        <v>2.4</v>
+      </c>
+      <c r="BG38">
+        <v>1.31</v>
+      </c>
+      <c r="BH38">
+        <v>3.04</v>
+      </c>
+      <c r="BI38">
+        <v>1.64</v>
+      </c>
+      <c r="BJ38">
+        <v>2.26</v>
+      </c>
+      <c r="BK38">
+        <v>2.03</v>
+      </c>
+      <c r="BL38">
+        <v>1.79</v>
+      </c>
+      <c r="BM38">
+        <v>2.65</v>
+      </c>
+      <c r="BN38">
+        <v>1.42</v>
+      </c>
+      <c r="BO38">
+        <v>3.64</v>
+      </c>
+      <c r="BP38">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7321433</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45395.08333333334</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>3.55</v>
+      </c>
+      <c r="T39">
+        <v>1.45</v>
+      </c>
+      <c r="U39">
+        <v>2.55</v>
+      </c>
+      <c r="V39">
+        <v>3.1</v>
+      </c>
+      <c r="W39">
+        <v>1.33</v>
+      </c>
+      <c r="X39">
+        <v>8.1</v>
+      </c>
+      <c r="Y39">
+        <v>1.06</v>
+      </c>
+      <c r="Z39">
+        <v>2.32</v>
+      </c>
+      <c r="AA39">
+        <v>3.1</v>
+      </c>
+      <c r="AB39">
+        <v>2.8</v>
+      </c>
+      <c r="AC39">
+        <v>1.07</v>
+      </c>
+      <c r="AD39">
+        <v>8</v>
+      </c>
+      <c r="AE39">
+        <v>1.38</v>
+      </c>
+      <c r="AF39">
+        <v>3</v>
+      </c>
+      <c r="AG39">
+        <v>2.1</v>
+      </c>
+      <c r="AH39">
+        <v>1.68</v>
+      </c>
+      <c r="AI39">
+        <v>1.83</v>
+      </c>
+      <c r="AJ39">
+        <v>1.85</v>
+      </c>
+      <c r="AK39">
+        <v>1.38</v>
+      </c>
+      <c r="AL39">
+        <v>1.28</v>
+      </c>
+      <c r="AM39">
+        <v>1.55</v>
+      </c>
+      <c r="AN39">
+        <v>2.33</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>1.75</v>
+      </c>
+      <c r="AQ39">
+        <v>2.25</v>
+      </c>
+      <c r="AR39">
+        <v>1.28</v>
+      </c>
+      <c r="AS39">
+        <v>1.6</v>
+      </c>
+      <c r="AT39">
+        <v>2.88</v>
+      </c>
+      <c r="AU39">
+        <v>6</v>
+      </c>
+      <c r="AV39">
+        <v>6</v>
+      </c>
+      <c r="AW39">
+        <v>9</v>
+      </c>
+      <c r="AX39">
+        <v>2</v>
+      </c>
+      <c r="AY39">
+        <v>15</v>
+      </c>
+      <c r="AZ39">
+        <v>8</v>
+      </c>
+      <c r="BA39">
+        <v>3</v>
+      </c>
+      <c r="BB39">
+        <v>2</v>
+      </c>
+      <c r="BC39">
+        <v>5</v>
+      </c>
+      <c r="BD39">
+        <v>1.91</v>
+      </c>
+      <c r="BE39">
+        <v>7.5</v>
+      </c>
+      <c r="BF39">
+        <v>2.2</v>
+      </c>
+      <c r="BG39">
+        <v>1.38</v>
+      </c>
+      <c r="BH39">
+        <v>2.8</v>
+      </c>
+      <c r="BI39">
+        <v>1.9</v>
+      </c>
+      <c r="BJ39">
+        <v>1.9</v>
+      </c>
+      <c r="BK39">
+        <v>2.21</v>
+      </c>
+      <c r="BL39">
+        <v>1.67</v>
+      </c>
+      <c r="BM39">
+        <v>2.91</v>
+      </c>
+      <c r="BN39">
+        <v>1.33</v>
+      </c>
+      <c r="BO39">
+        <v>4.15</v>
+      </c>
+      <c r="BP39">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7321434</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45395.1875</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P40" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q40">
+        <v>2.2</v>
+      </c>
+      <c r="R40">
+        <v>2.2</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40">
+        <v>2.75</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>1.36</v>
+      </c>
+      <c r="X40">
+        <v>8</v>
+      </c>
+      <c r="Y40">
+        <v>1.08</v>
+      </c>
+      <c r="Z40">
+        <v>1.62</v>
+      </c>
+      <c r="AA40">
+        <v>3.7</v>
+      </c>
+      <c r="AB40">
+        <v>4.4</v>
+      </c>
+      <c r="AC40">
+        <v>1.06</v>
+      </c>
+      <c r="AD40">
+        <v>8.5</v>
+      </c>
+      <c r="AE40">
+        <v>1.33</v>
+      </c>
+      <c r="AF40">
+        <v>3.25</v>
+      </c>
+      <c r="AG40">
+        <v>2</v>
+      </c>
+      <c r="AH40">
+        <v>1.77</v>
+      </c>
+      <c r="AI40">
+        <v>2</v>
+      </c>
+      <c r="AJ40">
+        <v>1.73</v>
+      </c>
+      <c r="AK40">
+        <v>1.12</v>
+      </c>
+      <c r="AL40">
+        <v>1.22</v>
+      </c>
+      <c r="AM40">
+        <v>2.25</v>
+      </c>
+      <c r="AN40">
+        <v>2.33</v>
+      </c>
+      <c r="AO40">
+        <v>1.33</v>
+      </c>
+      <c r="AP40">
+        <v>2.5</v>
+      </c>
+      <c r="AQ40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
+        <v>1.97</v>
+      </c>
+      <c r="AS40">
+        <v>1.55</v>
+      </c>
+      <c r="AT40">
+        <v>3.52</v>
+      </c>
+      <c r="AU40">
+        <v>12</v>
+      </c>
+      <c r="AV40">
+        <v>2</v>
+      </c>
+      <c r="AW40">
+        <v>4</v>
+      </c>
+      <c r="AX40">
+        <v>5</v>
+      </c>
+      <c r="AY40">
+        <v>16</v>
+      </c>
+      <c r="AZ40">
+        <v>7</v>
+      </c>
+      <c r="BA40">
+        <v>3</v>
+      </c>
+      <c r="BB40">
+        <v>4</v>
+      </c>
+      <c r="BC40">
+        <v>7</v>
+      </c>
+      <c r="BD40">
+        <v>1.59</v>
+      </c>
+      <c r="BE40">
+        <v>7.5</v>
+      </c>
+      <c r="BF40">
+        <v>2.91</v>
+      </c>
+      <c r="BG40">
+        <v>1.73</v>
+      </c>
+      <c r="BH40">
+        <v>2.09</v>
+      </c>
+      <c r="BI40">
+        <v>2.2</v>
+      </c>
+      <c r="BJ40">
+        <v>1.66</v>
+      </c>
+      <c r="BK40">
+        <v>2.93</v>
+      </c>
+      <c r="BL40">
+        <v>1.33</v>
+      </c>
+      <c r="BM40">
+        <v>4.3</v>
+      </c>
+      <c r="BN40">
+        <v>1.16</v>
+      </c>
+      <c r="BO40">
+        <v>5.9</v>
+      </c>
+      <c r="BP40">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7321435</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45395.1875</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>85</v>
+      </c>
+      <c r="P41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q41">
+        <v>3.1</v>
+      </c>
+      <c r="R41">
+        <v>2.1</v>
+      </c>
+      <c r="S41">
+        <v>3.6</v>
+      </c>
+      <c r="T41">
+        <v>1.44</v>
+      </c>
+      <c r="U41">
+        <v>2.63</v>
+      </c>
+      <c r="V41">
+        <v>3.25</v>
+      </c>
+      <c r="W41">
+        <v>1.33</v>
+      </c>
+      <c r="X41">
+        <v>9</v>
+      </c>
+      <c r="Y41">
+        <v>1.07</v>
+      </c>
+      <c r="Z41">
+        <v>2.23</v>
+      </c>
+      <c r="AA41">
+        <v>3.05</v>
+      </c>
+      <c r="AB41">
+        <v>2.95</v>
+      </c>
+      <c r="AC41">
+        <v>1.05</v>
+      </c>
+      <c r="AD41">
+        <v>9</v>
+      </c>
+      <c r="AE41">
+        <v>1.33</v>
+      </c>
+      <c r="AF41">
+        <v>3.2</v>
+      </c>
+      <c r="AG41">
+        <v>2.02</v>
+      </c>
+      <c r="AH41">
+        <v>1.74</v>
+      </c>
+      <c r="AI41">
+        <v>1.83</v>
+      </c>
+      <c r="AJ41">
+        <v>1.83</v>
+      </c>
+      <c r="AK41">
+        <v>1.4</v>
+      </c>
+      <c r="AL41">
+        <v>1.25</v>
+      </c>
+      <c r="AM41">
+        <v>1.57</v>
+      </c>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
+        <v>2</v>
+      </c>
+      <c r="AP41">
+        <v>1.5</v>
+      </c>
+      <c r="AQ41">
+        <v>2.25</v>
+      </c>
+      <c r="AR41">
+        <v>1.69</v>
+      </c>
+      <c r="AS41">
+        <v>1.42</v>
+      </c>
+      <c r="AT41">
+        <v>3.11</v>
+      </c>
+      <c r="AU41">
+        <v>2</v>
+      </c>
+      <c r="AV41">
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <v>2</v>
+      </c>
+      <c r="AX41">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>4</v>
+      </c>
+      <c r="AZ41">
+        <v>7</v>
+      </c>
+      <c r="BA41">
+        <v>2</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
+      <c r="BC41">
+        <v>4</v>
+      </c>
+      <c r="BD41">
+        <v>1.82</v>
+      </c>
+      <c r="BE41">
+        <v>8</v>
+      </c>
+      <c r="BF41">
+        <v>2.33</v>
+      </c>
+      <c r="BG41">
+        <v>1.25</v>
+      </c>
+      <c r="BH41">
+        <v>3.42</v>
+      </c>
+      <c r="BI41">
+        <v>1.52</v>
+      </c>
+      <c r="BJ41">
+        <v>2.48</v>
+      </c>
+      <c r="BK41">
+        <v>1.88</v>
+      </c>
+      <c r="BL41">
+        <v>1.92</v>
+      </c>
+      <c r="BM41">
+        <v>2.39</v>
+      </c>
+      <c r="BN41">
+        <v>1.56</v>
+      </c>
+      <c r="BO41">
+        <v>3.18</v>
+      </c>
+      <c r="BP41">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>['9', '43', '55', '61']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -795,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,7 +1263,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1341,7 +1344,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1672,7 +1675,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1878,7 +1881,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -2084,7 +2087,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2290,7 +2293,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2368,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>0.33</v>
@@ -2496,7 +2499,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2702,7 +2705,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2908,7 +2911,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -2989,7 +2992,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3320,7 +3323,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3526,7 +3529,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3732,7 +3735,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4556,7 +4559,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4762,7 +4765,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5049,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5174,7 +5177,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5252,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>2.25</v>
@@ -5380,7 +5383,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5586,7 +5589,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -5792,7 +5795,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -5998,7 +6001,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6410,7 +6413,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6616,7 +6619,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7440,7 +7443,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7646,7 +7649,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7852,7 +7855,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8264,7 +8267,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8470,7 +8473,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8676,7 +8679,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9088,7 +9091,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9245,6 +9248,418 @@
       </c>
       <c r="BP41">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7321436</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45396.08333333334</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>82</v>
+      </c>
+      <c r="P42" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q42">
+        <v>3.25</v>
+      </c>
+      <c r="R42">
+        <v>2.1</v>
+      </c>
+      <c r="S42">
+        <v>3.25</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42">
+        <v>2.75</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1.36</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
+      </c>
+      <c r="Y42">
+        <v>1.08</v>
+      </c>
+      <c r="Z42">
+        <v>2.7</v>
+      </c>
+      <c r="AA42">
+        <v>3.5</v>
+      </c>
+      <c r="AB42">
+        <v>2.7</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>9</v>
+      </c>
+      <c r="AE42">
+        <v>1.3</v>
+      </c>
+      <c r="AF42">
+        <v>3.35</v>
+      </c>
+      <c r="AG42">
+        <v>2</v>
+      </c>
+      <c r="AH42">
+        <v>1.89</v>
+      </c>
+      <c r="AI42">
+        <v>1.73</v>
+      </c>
+      <c r="AJ42">
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <v>1.48</v>
+      </c>
+      <c r="AL42">
+        <v>1.25</v>
+      </c>
+      <c r="AM42">
+        <v>1.48</v>
+      </c>
+      <c r="AN42">
+        <v>0.5</v>
+      </c>
+      <c r="AO42">
+        <v>0.33</v>
+      </c>
+      <c r="AP42">
+        <v>1.33</v>
+      </c>
+      <c r="AQ42">
+        <v>0.25</v>
+      </c>
+      <c r="AR42">
+        <v>2.47</v>
+      </c>
+      <c r="AS42">
+        <v>1.48</v>
+      </c>
+      <c r="AT42">
+        <v>3.95</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>3</v>
+      </c>
+      <c r="AX42">
+        <v>6</v>
+      </c>
+      <c r="AY42">
+        <v>6</v>
+      </c>
+      <c r="AZ42">
+        <v>9</v>
+      </c>
+      <c r="BA42">
+        <v>-1</v>
+      </c>
+      <c r="BB42">
+        <v>-1</v>
+      </c>
+      <c r="BC42">
+        <v>-1</v>
+      </c>
+      <c r="BD42">
+        <v>1.95</v>
+      </c>
+      <c r="BE42">
+        <v>7.5</v>
+      </c>
+      <c r="BF42">
+        <v>2.1</v>
+      </c>
+      <c r="BG42">
+        <v>1.32</v>
+      </c>
+      <c r="BH42">
+        <v>2.98</v>
+      </c>
+      <c r="BI42">
+        <v>1.6</v>
+      </c>
+      <c r="BJ42">
+        <v>2.19</v>
+      </c>
+      <c r="BK42">
+        <v>2.05</v>
+      </c>
+      <c r="BL42">
+        <v>1.72</v>
+      </c>
+      <c r="BM42">
+        <v>2.69</v>
+      </c>
+      <c r="BN42">
+        <v>1.41</v>
+      </c>
+      <c r="BO42">
+        <v>3.65</v>
+      </c>
+      <c r="BP42">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7321437</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45396.1875</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
+        <v>3.6</v>
+      </c>
+      <c r="T43">
+        <v>1.51</v>
+      </c>
+      <c r="U43">
+        <v>2.4</v>
+      </c>
+      <c r="V43">
+        <v>3.2</v>
+      </c>
+      <c r="W43">
+        <v>1.3</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.06</v>
+      </c>
+      <c r="Z43">
+        <v>2.31</v>
+      </c>
+      <c r="AA43">
+        <v>3.2</v>
+      </c>
+      <c r="AB43">
+        <v>3.3</v>
+      </c>
+      <c r="AC43">
+        <v>1.08</v>
+      </c>
+      <c r="AD43">
+        <v>7.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.42</v>
+      </c>
+      <c r="AF43">
+        <v>2.7</v>
+      </c>
+      <c r="AG43">
+        <v>2.2</v>
+      </c>
+      <c r="AH43">
+        <v>1.6</v>
+      </c>
+      <c r="AI43">
+        <v>1.95</v>
+      </c>
+      <c r="AJ43">
+        <v>1.8</v>
+      </c>
+      <c r="AK43">
+        <v>1.3</v>
+      </c>
+      <c r="AL43">
+        <v>1.28</v>
+      </c>
+      <c r="AM43">
+        <v>1.5</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>1.75</v>
+      </c>
+      <c r="AS43">
+        <v>1.41</v>
+      </c>
+      <c r="AT43">
+        <v>3.16</v>
+      </c>
+      <c r="AU43">
+        <v>5</v>
+      </c>
+      <c r="AV43">
+        <v>4</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>8</v>
+      </c>
+      <c r="AZ43">
+        <v>8</v>
+      </c>
+      <c r="BA43">
+        <v>3</v>
+      </c>
+      <c r="BB43">
+        <v>2</v>
+      </c>
+      <c r="BC43">
+        <v>5</v>
+      </c>
+      <c r="BD43">
+        <v>1.82</v>
+      </c>
+      <c r="BE43">
+        <v>7.5</v>
+      </c>
+      <c r="BF43">
+        <v>2.34</v>
+      </c>
+      <c r="BG43">
+        <v>1.46</v>
+      </c>
+      <c r="BH43">
+        <v>2.67</v>
+      </c>
+      <c r="BI43">
+        <v>1.69</v>
+      </c>
+      <c r="BJ43">
+        <v>2.15</v>
+      </c>
+      <c r="BK43">
+        <v>2.1</v>
+      </c>
+      <c r="BL43">
+        <v>1.72</v>
+      </c>
+      <c r="BM43">
+        <v>3.04</v>
+      </c>
+      <c r="BN43">
+        <v>1.31</v>
+      </c>
+      <c r="BO43">
+        <v>4.3</v>
+      </c>
+      <c r="BP43">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,12 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['62', '90+5']</t>
+  </si>
+  <si>
+    <t>['11', '31']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -437,6 +443,12 @@
   </si>
   <si>
     <t>['35', '45+4']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['7', '40', '50']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,7 +1275,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1675,7 +1687,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1881,7 +1893,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -1962,7 +1974,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2087,7 +2099,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2168,7 +2180,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2293,7 +2305,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2371,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2499,7 +2511,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2577,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2705,7 +2717,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2911,7 +2923,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3195,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
         <v>1.67</v>
@@ -3323,7 +3335,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3529,7 +3541,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3735,7 +3747,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4019,10 +4031,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4225,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4434,7 +4446,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.8</v>
@@ -4559,7 +4571,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4765,7 +4777,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5177,7 +5189,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5255,10 +5267,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>2.9</v>
@@ -5383,7 +5395,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5589,7 +5601,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -5795,7 +5807,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6001,7 +6013,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6079,7 +6091,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1.25</v>
@@ -6413,7 +6425,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6619,7 +6631,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6697,10 +6709,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -6906,7 +6918,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7443,7 +7455,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7524,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -7649,7 +7661,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7855,7 +7867,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8267,7 +8279,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8473,7 +8485,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8679,7 +8691,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8757,7 +8769,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
         <v>2.25</v>
@@ -9091,7 +9103,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9172,7 +9184,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.69</v>
@@ -9375,7 +9387,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
         <v>0.25</v>
@@ -9503,7 +9515,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9660,6 +9672,624 @@
       </c>
       <c r="BP43">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7321439</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45402.08333333334</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>114</v>
+      </c>
+      <c r="P44" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q44">
+        <v>3.2</v>
+      </c>
+      <c r="R44">
+        <v>2.1</v>
+      </c>
+      <c r="S44">
+        <v>3.5</v>
+      </c>
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44">
+        <v>2.75</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>1.36</v>
+      </c>
+      <c r="X44">
+        <v>9</v>
+      </c>
+      <c r="Y44">
+        <v>1.07</v>
+      </c>
+      <c r="Z44">
+        <v>2.75</v>
+      </c>
+      <c r="AA44">
+        <v>3.45</v>
+      </c>
+      <c r="AB44">
+        <v>2.7</v>
+      </c>
+      <c r="AC44">
+        <v>1.02</v>
+      </c>
+      <c r="AD44">
+        <v>10.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.3</v>
+      </c>
+      <c r="AF44">
+        <v>3.2</v>
+      </c>
+      <c r="AG44">
+        <v>2</v>
+      </c>
+      <c r="AH44">
+        <v>1.89</v>
+      </c>
+      <c r="AI44">
+        <v>1.8</v>
+      </c>
+      <c r="AJ44">
+        <v>1.91</v>
+      </c>
+      <c r="AK44">
+        <v>1.44</v>
+      </c>
+      <c r="AL44">
+        <v>1.35</v>
+      </c>
+      <c r="AM44">
+        <v>1.5</v>
+      </c>
+      <c r="AN44">
+        <v>1.33</v>
+      </c>
+      <c r="AO44">
+        <v>1.33</v>
+      </c>
+      <c r="AP44">
+        <v>1.75</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1.95</v>
+      </c>
+      <c r="AS44">
+        <v>1.38</v>
+      </c>
+      <c r="AT44">
+        <v>3.33</v>
+      </c>
+      <c r="AU44">
+        <v>6</v>
+      </c>
+      <c r="AV44">
+        <v>7</v>
+      </c>
+      <c r="AW44">
+        <v>11</v>
+      </c>
+      <c r="AX44">
+        <v>5</v>
+      </c>
+      <c r="AY44">
+        <v>17</v>
+      </c>
+      <c r="AZ44">
+        <v>12</v>
+      </c>
+      <c r="BA44">
+        <v>10</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>14</v>
+      </c>
+      <c r="BD44">
+        <v>2.38</v>
+      </c>
+      <c r="BE44">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF44">
+        <v>1.79</v>
+      </c>
+      <c r="BG44">
+        <v>1.29</v>
+      </c>
+      <c r="BH44">
+        <v>3.14</v>
+      </c>
+      <c r="BI44">
+        <v>1.56</v>
+      </c>
+      <c r="BJ44">
+        <v>2.27</v>
+      </c>
+      <c r="BK44">
+        <v>1.97</v>
+      </c>
+      <c r="BL44">
+        <v>1.78</v>
+      </c>
+      <c r="BM44">
+        <v>2.57</v>
+      </c>
+      <c r="BN44">
+        <v>1.44</v>
+      </c>
+      <c r="BO44">
+        <v>3.48</v>
+      </c>
+      <c r="BP44">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7321440</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45402.1875</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>85</v>
+      </c>
+      <c r="P45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q45">
+        <v>2.6</v>
+      </c>
+      <c r="R45">
+        <v>2.2</v>
+      </c>
+      <c r="S45">
+        <v>4.33</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45">
+        <v>2.75</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>1.36</v>
+      </c>
+      <c r="X45">
+        <v>8</v>
+      </c>
+      <c r="Y45">
+        <v>1.08</v>
+      </c>
+      <c r="Z45">
+        <v>1.9</v>
+      </c>
+      <c r="AA45">
+        <v>3.7</v>
+      </c>
+      <c r="AB45">
+        <v>4.3</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>11</v>
+      </c>
+      <c r="AE45">
+        <v>1.3</v>
+      </c>
+      <c r="AF45">
+        <v>3.3</v>
+      </c>
+      <c r="AG45">
+        <v>1.94</v>
+      </c>
+      <c r="AH45">
+        <v>1.94</v>
+      </c>
+      <c r="AI45">
+        <v>1.8</v>
+      </c>
+      <c r="AJ45">
+        <v>1.91</v>
+      </c>
+      <c r="AK45">
+        <v>1.25</v>
+      </c>
+      <c r="AL45">
+        <v>1.25</v>
+      </c>
+      <c r="AM45">
+        <v>1.8</v>
+      </c>
+      <c r="AN45">
+        <v>2.33</v>
+      </c>
+      <c r="AO45">
+        <v>2.25</v>
+      </c>
+      <c r="AP45">
+        <v>2</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>1.84</v>
+      </c>
+      <c r="AS45">
+        <v>1.31</v>
+      </c>
+      <c r="AT45">
+        <v>3.15</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>6</v>
+      </c>
+      <c r="AX45">
+        <v>5</v>
+      </c>
+      <c r="AY45">
+        <v>6</v>
+      </c>
+      <c r="AZ45">
+        <v>7</v>
+      </c>
+      <c r="BA45">
+        <v>6</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>6</v>
+      </c>
+      <c r="BD45">
+        <v>1.78</v>
+      </c>
+      <c r="BE45">
+        <v>8.6</v>
+      </c>
+      <c r="BF45">
+        <v>2.41</v>
+      </c>
+      <c r="BG45">
+        <v>1.33</v>
+      </c>
+      <c r="BH45">
+        <v>2.91</v>
+      </c>
+      <c r="BI45">
+        <v>1.64</v>
+      </c>
+      <c r="BJ45">
+        <v>2.12</v>
+      </c>
+      <c r="BK45">
+        <v>2.09</v>
+      </c>
+      <c r="BL45">
+        <v>1.69</v>
+      </c>
+      <c r="BM45">
+        <v>2.76</v>
+      </c>
+      <c r="BN45">
+        <v>1.39</v>
+      </c>
+      <c r="BO45">
+        <v>3.84</v>
+      </c>
+      <c r="BP45">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7321441</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45402.1875</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q46">
+        <v>3.2</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>3.25</v>
+      </c>
+      <c r="T46">
+        <v>1.42</v>
+      </c>
+      <c r="U46">
+        <v>2.65</v>
+      </c>
+      <c r="V46">
+        <v>2.9</v>
+      </c>
+      <c r="W46">
+        <v>1.35</v>
+      </c>
+      <c r="X46">
+        <v>8</v>
+      </c>
+      <c r="Y46">
+        <v>1.07</v>
+      </c>
+      <c r="Z46">
+        <v>2.75</v>
+      </c>
+      <c r="AA46">
+        <v>3.2</v>
+      </c>
+      <c r="AB46">
+        <v>2.7</v>
+      </c>
+      <c r="AC46">
+        <v>1.05</v>
+      </c>
+      <c r="AD46">
+        <v>10.5</v>
+      </c>
+      <c r="AE46">
+        <v>1.3</v>
+      </c>
+      <c r="AF46">
+        <v>3.2</v>
+      </c>
+      <c r="AG46">
+        <v>1.96</v>
+      </c>
+      <c r="AH46">
+        <v>1.8</v>
+      </c>
+      <c r="AI46">
+        <v>1.75</v>
+      </c>
+      <c r="AJ46">
+        <v>1.95</v>
+      </c>
+      <c r="AK46">
+        <v>1.42</v>
+      </c>
+      <c r="AL46">
+        <v>1.28</v>
+      </c>
+      <c r="AM46">
+        <v>1.48</v>
+      </c>
+      <c r="AN46">
+        <v>1.75</v>
+      </c>
+      <c r="AO46">
+        <v>0.33</v>
+      </c>
+      <c r="AP46">
+        <v>1.4</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.43</v>
+      </c>
+      <c r="AS46">
+        <v>1.59</v>
+      </c>
+      <c r="AT46">
+        <v>3.02</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>7</v>
+      </c>
+      <c r="AW46">
+        <v>5</v>
+      </c>
+      <c r="AX46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
+        <v>11</v>
+      </c>
+      <c r="AZ46">
+        <v>11</v>
+      </c>
+      <c r="BA46">
+        <v>6</v>
+      </c>
+      <c r="BB46">
+        <v>4</v>
+      </c>
+      <c r="BC46">
+        <v>10</v>
+      </c>
+      <c r="BD46">
+        <v>2</v>
+      </c>
+      <c r="BE46">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF46">
+        <v>2.09</v>
+      </c>
+      <c r="BG46">
+        <v>1.27</v>
+      </c>
+      <c r="BH46">
+        <v>3.28</v>
+      </c>
+      <c r="BI46">
+        <v>1.52</v>
+      </c>
+      <c r="BJ46">
+        <v>2.36</v>
+      </c>
+      <c r="BK46">
+        <v>1.91</v>
+      </c>
+      <c r="BL46">
+        <v>1.83</v>
+      </c>
+      <c r="BM46">
+        <v>2.49</v>
+      </c>
+      <c r="BN46">
+        <v>1.47</v>
+      </c>
+      <c r="BO46">
+        <v>3.34</v>
+      </c>
+      <c r="BP46">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['11', '31']</t>
   </si>
   <si>
+    <t>['20', '45+2', '45+4', '54']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -449,6 +452,9 @@
   </si>
   <si>
     <t>['7', '40', '50']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1275,7 +1281,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1356,7 +1362,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1687,7 +1693,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1893,7 +1899,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -1971,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2099,7 +2105,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2177,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2305,7 +2311,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2511,7 +2517,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2717,7 +2723,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2923,7 +2929,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3004,7 +3010,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3210,7 +3216,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ12">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3335,7 +3341,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3541,7 +3547,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3747,7 +3753,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3825,7 +3831,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15">
         <v>1.25</v>
@@ -4571,7 +4577,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4652,7 +4658,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4777,7 +4783,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -5064,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR21">
         <v>2.1</v>
@@ -5189,7 +5195,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5395,7 +5401,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5601,7 +5607,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -5679,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -5807,7 +5813,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -6013,7 +6019,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6425,7 +6431,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6506,7 +6512,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -6631,7 +6637,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7121,7 +7127,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7455,7 +7461,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7661,7 +7667,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7867,7 +7873,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -8151,7 +8157,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ36">
         <v>0.67</v>
@@ -8279,7 +8285,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8485,7 +8491,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8691,7 +8697,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9103,7 +9109,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9390,7 +9396,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9515,7 +9521,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9721,7 +9727,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10133,7 +10139,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10290,6 +10296,418 @@
       </c>
       <c r="BP46">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7321442</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45403.08333333334</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>116</v>
+      </c>
+      <c r="P47" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q47">
+        <v>3.71</v>
+      </c>
+      <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
+        <v>3.79</v>
+      </c>
+      <c r="T47">
+        <v>1.61</v>
+      </c>
+      <c r="U47">
+        <v>2.36</v>
+      </c>
+      <c r="V47">
+        <v>3.4</v>
+      </c>
+      <c r="W47">
+        <v>1.27</v>
+      </c>
+      <c r="X47">
+        <v>8.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.03</v>
+      </c>
+      <c r="Z47">
+        <v>2.65</v>
+      </c>
+      <c r="AA47">
+        <v>3</v>
+      </c>
+      <c r="AB47">
+        <v>2.75</v>
+      </c>
+      <c r="AC47">
+        <v>1.08</v>
+      </c>
+      <c r="AD47">
+        <v>6.2</v>
+      </c>
+      <c r="AE47">
+        <v>1.45</v>
+      </c>
+      <c r="AF47">
+        <v>2.5</v>
+      </c>
+      <c r="AG47">
+        <v>2.4</v>
+      </c>
+      <c r="AH47">
+        <v>1.5</v>
+      </c>
+      <c r="AI47">
+        <v>2.1</v>
+      </c>
+      <c r="AJ47">
+        <v>1.65</v>
+      </c>
+      <c r="AK47">
+        <v>1.42</v>
+      </c>
+      <c r="AL47">
+        <v>1.32</v>
+      </c>
+      <c r="AM47">
+        <v>1.42</v>
+      </c>
+      <c r="AN47">
+        <v>1.67</v>
+      </c>
+      <c r="AO47">
+        <v>1.67</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>1.25</v>
+      </c>
+      <c r="AR47">
+        <v>1.92</v>
+      </c>
+      <c r="AS47">
+        <v>1.73</v>
+      </c>
+      <c r="AT47">
+        <v>3.65</v>
+      </c>
+      <c r="AU47">
+        <v>8</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>8</v>
+      </c>
+      <c r="AY47">
+        <v>15</v>
+      </c>
+      <c r="AZ47">
+        <v>14</v>
+      </c>
+      <c r="BA47">
+        <v>3</v>
+      </c>
+      <c r="BB47">
+        <v>8</v>
+      </c>
+      <c r="BC47">
+        <v>11</v>
+      </c>
+      <c r="BD47">
+        <v>1.89</v>
+      </c>
+      <c r="BE47">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF47">
+        <v>2.25</v>
+      </c>
+      <c r="BG47">
+        <v>1.47</v>
+      </c>
+      <c r="BH47">
+        <v>2.49</v>
+      </c>
+      <c r="BI47">
+        <v>1.86</v>
+      </c>
+      <c r="BJ47">
+        <v>1.88</v>
+      </c>
+      <c r="BK47">
+        <v>2.41</v>
+      </c>
+      <c r="BL47">
+        <v>1.5</v>
+      </c>
+      <c r="BM47">
+        <v>3.28</v>
+      </c>
+      <c r="BN47">
+        <v>1.27</v>
+      </c>
+      <c r="BO47">
+        <v>4.75</v>
+      </c>
+      <c r="BP47">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7321443</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45403.1875</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>85</v>
+      </c>
+      <c r="P48" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q48">
+        <v>2.75</v>
+      </c>
+      <c r="R48">
+        <v>2.05</v>
+      </c>
+      <c r="S48">
+        <v>3.9</v>
+      </c>
+      <c r="T48">
+        <v>1.42</v>
+      </c>
+      <c r="U48">
+        <v>2.65</v>
+      </c>
+      <c r="V48">
+        <v>2.95</v>
+      </c>
+      <c r="W48">
+        <v>1.35</v>
+      </c>
+      <c r="X48">
+        <v>6.8</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>2.05</v>
+      </c>
+      <c r="AA48">
+        <v>3.4</v>
+      </c>
+      <c r="AB48">
+        <v>3.5</v>
+      </c>
+      <c r="AC48">
+        <v>1.06</v>
+      </c>
+      <c r="AD48">
+        <v>7.2</v>
+      </c>
+      <c r="AE48">
+        <v>1.3</v>
+      </c>
+      <c r="AF48">
+        <v>3.2</v>
+      </c>
+      <c r="AG48">
+        <v>2</v>
+      </c>
+      <c r="AH48">
+        <v>1.75</v>
+      </c>
+      <c r="AI48">
+        <v>1.72</v>
+      </c>
+      <c r="AJ48">
+        <v>1.97</v>
+      </c>
+      <c r="AK48">
+        <v>1.3</v>
+      </c>
+      <c r="AL48">
+        <v>1.28</v>
+      </c>
+      <c r="AM48">
+        <v>1.68</v>
+      </c>
+      <c r="AN48">
+        <v>0.67</v>
+      </c>
+      <c r="AO48">
+        <v>0.25</v>
+      </c>
+      <c r="AP48">
+        <v>0.75</v>
+      </c>
+      <c r="AQ48">
+        <v>0.4</v>
+      </c>
+      <c r="AR48">
+        <v>1.57</v>
+      </c>
+      <c r="AS48">
+        <v>1.38</v>
+      </c>
+      <c r="AT48">
+        <v>2.95</v>
+      </c>
+      <c r="AU48">
+        <v>-1</v>
+      </c>
+      <c r="AV48">
+        <v>-1</v>
+      </c>
+      <c r="AW48">
+        <v>-1</v>
+      </c>
+      <c r="AX48">
+        <v>-1</v>
+      </c>
+      <c r="AY48">
+        <v>-1</v>
+      </c>
+      <c r="AZ48">
+        <v>-1</v>
+      </c>
+      <c r="BA48">
+        <v>-1</v>
+      </c>
+      <c r="BB48">
+        <v>-1</v>
+      </c>
+      <c r="BC48">
+        <v>-1</v>
+      </c>
+      <c r="BD48">
+        <v>1.75</v>
+      </c>
+      <c r="BE48">
+        <v>7.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.53</v>
+      </c>
+      <c r="BG48">
+        <v>1.52</v>
+      </c>
+      <c r="BH48">
+        <v>2.47</v>
+      </c>
+      <c r="BI48">
+        <v>1.9</v>
+      </c>
+      <c r="BJ48">
+        <v>1.9</v>
+      </c>
+      <c r="BK48">
+        <v>2.45</v>
+      </c>
+      <c r="BL48">
+        <v>1.53</v>
+      </c>
+      <c r="BM48">
+        <v>3.34</v>
+      </c>
+      <c r="BN48">
+        <v>1.26</v>
+      </c>
+      <c r="BO48">
+        <v>4.85</v>
+      </c>
+      <c r="BP48">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -10644,31 +10644,31 @@
         <v>2.95</v>
       </c>
       <c r="AU48">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV48">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW48">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX48">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY48">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ48">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB48">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC48">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD48">
         <v>1.75</v>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,18 @@
     <t>['20', '45+2', '45+4', '54']</t>
   </si>
   <si>
+    <t>['14', '36', '48']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['10', '85']</t>
+  </si>
+  <si>
+    <t>['57', '63', '80']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -455,6 +467,18 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['45+2', '90+6']</t>
+  </si>
+  <si>
+    <t>['90+4', '90+6']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
 </sst>
 </file>
@@ -816,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ2">
         <v>2.25</v>
@@ -1281,7 +1305,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>2.38</v>
@@ -1359,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
         <v>0.4</v>
@@ -1565,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1693,7 +1717,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -1774,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1899,7 +1923,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
@@ -1980,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2105,7 +2129,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2311,7 +2335,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>3.95</v>
@@ -2517,7 +2541,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2595,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2723,7 +2747,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>3.7</v>
@@ -2801,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -2929,7 +2953,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>2.6</v>
@@ -3216,7 +3240,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3341,7 +3365,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3419,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>1.56</v>
@@ -3547,7 +3571,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -3625,10 +3649,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3753,7 +3777,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3834,7 +3858,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>1.71</v>
@@ -4040,7 +4064,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4243,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4449,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4577,7 +4601,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>2.35</v>
@@ -4655,10 +4679,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4783,7 +4807,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q20">
         <v>3.22</v>
@@ -4861,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5195,7 +5219,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>2.74</v>
@@ -5401,7 +5425,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5607,7 +5631,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>3.25</v>
@@ -5688,7 +5712,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5813,7 +5837,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>2.9</v>
@@ -5891,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6019,7 +6043,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>1.95</v>
@@ -6097,10 +6121,10 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -6303,7 +6327,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6431,7 +6455,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6509,10 +6533,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -6637,7 +6661,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7333,10 +7357,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>1.94</v>
@@ -7461,7 +7485,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>2.93</v>
@@ -7542,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.77</v>
@@ -7667,7 +7691,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -7745,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7873,7 +7897,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>2.47</v>
@@ -7951,10 +7975,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR35">
         <v>1.71</v>
@@ -8160,7 +8184,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>1.88</v>
@@ -8285,7 +8309,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8363,7 +8387,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>2.25</v>
@@ -8491,7 +8515,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>2.8</v>
@@ -8569,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -8697,7 +8721,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8981,10 +9005,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>1.97</v>
@@ -9109,7 +9133,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9521,7 +9545,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9727,7 +9751,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -9808,7 +9832,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR44">
         <v>1.95</v>
@@ -10011,7 +10035,7 @@
         <v>2.25</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10139,7 +10163,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10345,7 +10369,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>3.71</v>
@@ -10426,7 +10450,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
         <v>1.92</v>
@@ -10708,6 +10732,1242 @@
       </c>
       <c r="BP48">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7321444</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45409.08333333334</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>117</v>
+      </c>
+      <c r="P49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q49">
+        <v>3.52</v>
+      </c>
+      <c r="R49">
+        <v>2.19</v>
+      </c>
+      <c r="S49">
+        <v>3.29</v>
+      </c>
+      <c r="T49">
+        <v>1.43</v>
+      </c>
+      <c r="U49">
+        <v>2.91</v>
+      </c>
+      <c r="V49">
+        <v>3.11</v>
+      </c>
+      <c r="W49">
+        <v>1.39</v>
+      </c>
+      <c r="X49">
+        <v>7.6</v>
+      </c>
+      <c r="Y49">
+        <v>1.07</v>
+      </c>
+      <c r="Z49">
+        <v>2.8</v>
+      </c>
+      <c r="AA49">
+        <v>3.3</v>
+      </c>
+      <c r="AB49">
+        <v>2.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.02</v>
+      </c>
+      <c r="AD49">
+        <v>8.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.3</v>
+      </c>
+      <c r="AF49">
+        <v>3.1</v>
+      </c>
+      <c r="AG49">
+        <v>2</v>
+      </c>
+      <c r="AH49">
+        <v>1.85</v>
+      </c>
+      <c r="AI49">
+        <v>1.79</v>
+      </c>
+      <c r="AJ49">
+        <v>1.96</v>
+      </c>
+      <c r="AK49">
+        <v>1.5</v>
+      </c>
+      <c r="AL49">
+        <v>1.28</v>
+      </c>
+      <c r="AM49">
+        <v>1.42</v>
+      </c>
+      <c r="AN49">
+        <v>1.33</v>
+      </c>
+      <c r="AO49">
+        <v>0.67</v>
+      </c>
+      <c r="AP49">
+        <v>1.75</v>
+      </c>
+      <c r="AQ49">
+        <v>0.5</v>
+      </c>
+      <c r="AR49">
+        <v>1.07</v>
+      </c>
+      <c r="AS49">
+        <v>1.16</v>
+      </c>
+      <c r="AT49">
+        <v>2.23</v>
+      </c>
+      <c r="AU49">
+        <v>6</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>1</v>
+      </c>
+      <c r="AY49">
+        <v>7</v>
+      </c>
+      <c r="AZ49">
+        <v>6</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>6</v>
+      </c>
+      <c r="BC49">
+        <v>10</v>
+      </c>
+      <c r="BD49">
+        <v>2</v>
+      </c>
+      <c r="BE49">
+        <v>7.5</v>
+      </c>
+      <c r="BF49">
+        <v>2.1</v>
+      </c>
+      <c r="BG49">
+        <v>1.38</v>
+      </c>
+      <c r="BH49">
+        <v>2.8</v>
+      </c>
+      <c r="BI49">
+        <v>1.9</v>
+      </c>
+      <c r="BJ49">
+        <v>1.9</v>
+      </c>
+      <c r="BK49">
+        <v>2.19</v>
+      </c>
+      <c r="BL49">
+        <v>1.68</v>
+      </c>
+      <c r="BM49">
+        <v>2.88</v>
+      </c>
+      <c r="BN49">
+        <v>1.34</v>
+      </c>
+      <c r="BO49">
+        <v>4.15</v>
+      </c>
+      <c r="BP49">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7321445</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45409.1875</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>100</v>
+      </c>
+      <c r="P50" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q50">
+        <v>2.9</v>
+      </c>
+      <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
+        <v>3.75</v>
+      </c>
+      <c r="T50">
+        <v>1.44</v>
+      </c>
+      <c r="U50">
+        <v>2.6</v>
+      </c>
+      <c r="V50">
+        <v>3</v>
+      </c>
+      <c r="W50">
+        <v>1.33</v>
+      </c>
+      <c r="X50">
+        <v>8</v>
+      </c>
+      <c r="Y50">
+        <v>1.05</v>
+      </c>
+      <c r="Z50">
+        <v>1.58</v>
+      </c>
+      <c r="AA50">
+        <v>4.56</v>
+      </c>
+      <c r="AB50">
+        <v>3.87</v>
+      </c>
+      <c r="AC50">
+        <v>1.05</v>
+      </c>
+      <c r="AD50">
+        <v>8</v>
+      </c>
+      <c r="AE50">
+        <v>1.36</v>
+      </c>
+      <c r="AF50">
+        <v>2.9</v>
+      </c>
+      <c r="AG50">
+        <v>2.1</v>
+      </c>
+      <c r="AH50">
+        <v>1.7</v>
+      </c>
+      <c r="AI50">
+        <v>1.85</v>
+      </c>
+      <c r="AJ50">
+        <v>1.85</v>
+      </c>
+      <c r="AK50">
+        <v>1.4</v>
+      </c>
+      <c r="AL50">
+        <v>1.33</v>
+      </c>
+      <c r="AM50">
+        <v>1.57</v>
+      </c>
+      <c r="AN50">
+        <v>1.5</v>
+      </c>
+      <c r="AO50">
+        <v>1.25</v>
+      </c>
+      <c r="AP50">
+        <v>1.2</v>
+      </c>
+      <c r="AQ50">
+        <v>1.6</v>
+      </c>
+      <c r="AR50">
+        <v>2.02</v>
+      </c>
+      <c r="AS50">
+        <v>1.47</v>
+      </c>
+      <c r="AT50">
+        <v>3.49</v>
+      </c>
+      <c r="AU50">
+        <v>2</v>
+      </c>
+      <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>2</v>
+      </c>
+      <c r="AX50">
+        <v>1</v>
+      </c>
+      <c r="AY50">
+        <v>4</v>
+      </c>
+      <c r="AZ50">
+        <v>5</v>
+      </c>
+      <c r="BA50">
+        <v>7</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
+        <v>9</v>
+      </c>
+      <c r="BD50">
+        <v>1.67</v>
+      </c>
+      <c r="BE50">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF50">
+        <v>2.62</v>
+      </c>
+      <c r="BG50">
+        <v>1.37</v>
+      </c>
+      <c r="BH50">
+        <v>2.84</v>
+      </c>
+      <c r="BI50">
+        <v>1.73</v>
+      </c>
+      <c r="BJ50">
+        <v>2.09</v>
+      </c>
+      <c r="BK50">
+        <v>2.21</v>
+      </c>
+      <c r="BL50">
+        <v>1.66</v>
+      </c>
+      <c r="BM50">
+        <v>2.84</v>
+      </c>
+      <c r="BN50">
+        <v>1.35</v>
+      </c>
+      <c r="BO50">
+        <v>4</v>
+      </c>
+      <c r="BP50">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7321446</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45409.1875</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51">
+        <v>2.62</v>
+      </c>
+      <c r="R51">
+        <v>2.05</v>
+      </c>
+      <c r="S51">
+        <v>4.33</v>
+      </c>
+      <c r="T51">
+        <v>1.44</v>
+      </c>
+      <c r="U51">
+        <v>2.6</v>
+      </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>1.33</v>
+      </c>
+      <c r="X51">
+        <v>8</v>
+      </c>
+      <c r="Y51">
+        <v>1.05</v>
+      </c>
+      <c r="Z51">
+        <v>4.93</v>
+      </c>
+      <c r="AA51">
+        <v>1.39</v>
+      </c>
+      <c r="AB51">
+        <v>5.26</v>
+      </c>
+      <c r="AC51">
+        <v>1.05</v>
+      </c>
+      <c r="AD51">
+        <v>8</v>
+      </c>
+      <c r="AE51">
+        <v>1.36</v>
+      </c>
+      <c r="AF51">
+        <v>2.9</v>
+      </c>
+      <c r="AG51">
+        <v>2.15</v>
+      </c>
+      <c r="AH51">
+        <v>1.65</v>
+      </c>
+      <c r="AI51">
+        <v>1.91</v>
+      </c>
+      <c r="AJ51">
+        <v>1.8</v>
+      </c>
+      <c r="AK51">
+        <v>1.25</v>
+      </c>
+      <c r="AL51">
+        <v>1.33</v>
+      </c>
+      <c r="AM51">
+        <v>1.83</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>1</v>
+      </c>
+      <c r="AP51">
+        <v>2.25</v>
+      </c>
+      <c r="AQ51">
+        <v>0.8</v>
+      </c>
+      <c r="AR51">
+        <v>1.2</v>
+      </c>
+      <c r="AS51">
+        <v>1.36</v>
+      </c>
+      <c r="AT51">
+        <v>2.56</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>10</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>15</v>
+      </c>
+      <c r="AZ51">
+        <v>6</v>
+      </c>
+      <c r="BA51">
+        <v>5</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>7</v>
+      </c>
+      <c r="BD51">
+        <v>1.75</v>
+      </c>
+      <c r="BE51">
+        <v>7.5</v>
+      </c>
+      <c r="BF51">
+        <v>2.38</v>
+      </c>
+      <c r="BG51">
+        <v>1.54</v>
+      </c>
+      <c r="BH51">
+        <v>2.45</v>
+      </c>
+      <c r="BI51">
+        <v>1.9</v>
+      </c>
+      <c r="BJ51">
+        <v>1.9</v>
+      </c>
+      <c r="BK51">
+        <v>2.42</v>
+      </c>
+      <c r="BL51">
+        <v>1.56</v>
+      </c>
+      <c r="BM51">
+        <v>3.34</v>
+      </c>
+      <c r="BN51">
+        <v>1.26</v>
+      </c>
+      <c r="BO51">
+        <v>4.85</v>
+      </c>
+      <c r="BP51">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7321447</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>85</v>
+      </c>
+      <c r="P52" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q52">
+        <v>2.54</v>
+      </c>
+      <c r="R52">
+        <v>1.96</v>
+      </c>
+      <c r="S52">
+        <v>3.76</v>
+      </c>
+      <c r="T52">
+        <v>1.45</v>
+      </c>
+      <c r="U52">
+        <v>2.6</v>
+      </c>
+      <c r="V52">
+        <v>3</v>
+      </c>
+      <c r="W52">
+        <v>1.33</v>
+      </c>
+      <c r="X52">
+        <v>7.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.07</v>
+      </c>
+      <c r="Z52">
+        <v>2.04</v>
+      </c>
+      <c r="AA52">
+        <v>3.08</v>
+      </c>
+      <c r="AB52">
+        <v>3.17</v>
+      </c>
+      <c r="AC52">
+        <v>1.07</v>
+      </c>
+      <c r="AD52">
+        <v>8</v>
+      </c>
+      <c r="AE52">
+        <v>1.36</v>
+      </c>
+      <c r="AF52">
+        <v>3</v>
+      </c>
+      <c r="AG52">
+        <v>2.05</v>
+      </c>
+      <c r="AH52">
+        <v>1.61</v>
+      </c>
+      <c r="AI52">
+        <v>1.85</v>
+      </c>
+      <c r="AJ52">
+        <v>1.9</v>
+      </c>
+      <c r="AK52">
+        <v>1.24</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>1.72</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>1.25</v>
+      </c>
+      <c r="AP52">
+        <v>1.8</v>
+      </c>
+      <c r="AQ52">
+        <v>1.2</v>
+      </c>
+      <c r="AR52">
+        <v>1.65</v>
+      </c>
+      <c r="AS52">
+        <v>1.75</v>
+      </c>
+      <c r="AT52">
+        <v>3.4</v>
+      </c>
+      <c r="AU52">
+        <v>3</v>
+      </c>
+      <c r="AV52">
+        <v>4</v>
+      </c>
+      <c r="AW52">
+        <v>8</v>
+      </c>
+      <c r="AX52">
+        <v>11</v>
+      </c>
+      <c r="AY52">
+        <v>11</v>
+      </c>
+      <c r="AZ52">
+        <v>15</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>4</v>
+      </c>
+      <c r="BD52">
+        <v>1.82</v>
+      </c>
+      <c r="BE52">
+        <v>7.5</v>
+      </c>
+      <c r="BF52">
+        <v>2.42</v>
+      </c>
+      <c r="BG52">
+        <v>1.49</v>
+      </c>
+      <c r="BH52">
+        <v>2.59</v>
+      </c>
+      <c r="BI52">
+        <v>2</v>
+      </c>
+      <c r="BJ52">
+        <v>1.8</v>
+      </c>
+      <c r="BK52">
+        <v>2.3</v>
+      </c>
+      <c r="BL52">
+        <v>1.61</v>
+      </c>
+      <c r="BM52">
+        <v>3</v>
+      </c>
+      <c r="BN52">
+        <v>1.35</v>
+      </c>
+      <c r="BO52">
+        <v>4.2</v>
+      </c>
+      <c r="BP52">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7321448</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P53" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q53">
+        <v>2.42</v>
+      </c>
+      <c r="R53">
+        <v>1.98</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>1.45</v>
+      </c>
+      <c r="U53">
+        <v>2.6</v>
+      </c>
+      <c r="V53">
+        <v>3</v>
+      </c>
+      <c r="W53">
+        <v>1.33</v>
+      </c>
+      <c r="X53">
+        <v>7.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.07</v>
+      </c>
+      <c r="Z53">
+        <v>1.66</v>
+      </c>
+      <c r="AA53">
+        <v>3.02</v>
+      </c>
+      <c r="AB53">
+        <v>5.65</v>
+      </c>
+      <c r="AC53">
+        <v>1.07</v>
+      </c>
+      <c r="AD53">
+        <v>8</v>
+      </c>
+      <c r="AE53">
+        <v>1.36</v>
+      </c>
+      <c r="AF53">
+        <v>3</v>
+      </c>
+      <c r="AG53">
+        <v>2</v>
+      </c>
+      <c r="AH53">
+        <v>1.67</v>
+      </c>
+      <c r="AI53">
+        <v>1.9</v>
+      </c>
+      <c r="AJ53">
+        <v>1.83</v>
+      </c>
+      <c r="AK53">
+        <v>1.15</v>
+      </c>
+      <c r="AL53">
+        <v>1.23</v>
+      </c>
+      <c r="AM53">
+        <v>1.97</v>
+      </c>
+      <c r="AN53">
+        <v>1.25</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>1.2</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1.47</v>
+      </c>
+      <c r="AS53">
+        <v>1.34</v>
+      </c>
+      <c r="AT53">
+        <v>2.81</v>
+      </c>
+      <c r="AU53">
+        <v>7</v>
+      </c>
+      <c r="AV53">
+        <v>7</v>
+      </c>
+      <c r="AW53">
+        <v>5</v>
+      </c>
+      <c r="AX53">
+        <v>10</v>
+      </c>
+      <c r="AY53">
+        <v>12</v>
+      </c>
+      <c r="AZ53">
+        <v>17</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>5</v>
+      </c>
+      <c r="BC53">
+        <v>10</v>
+      </c>
+      <c r="BD53">
+        <v>1.64</v>
+      </c>
+      <c r="BE53">
+        <v>7.5</v>
+      </c>
+      <c r="BF53">
+        <v>2.78</v>
+      </c>
+      <c r="BG53">
+        <v>1.47</v>
+      </c>
+      <c r="BH53">
+        <v>2.62</v>
+      </c>
+      <c r="BI53">
+        <v>2</v>
+      </c>
+      <c r="BJ53">
+        <v>1.8</v>
+      </c>
+      <c r="BK53">
+        <v>2.25</v>
+      </c>
+      <c r="BL53">
+        <v>1.62</v>
+      </c>
+      <c r="BM53">
+        <v>3.08</v>
+      </c>
+      <c r="BN53">
+        <v>1.3</v>
+      </c>
+      <c r="BO53">
+        <v>4.45</v>
+      </c>
+      <c r="BP53">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7321449</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45410.1875</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>120</v>
+      </c>
+      <c r="P54" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q54">
+        <v>2.3</v>
+      </c>
+      <c r="R54">
+        <v>2.2</v>
+      </c>
+      <c r="S54">
+        <v>5.5</v>
+      </c>
+      <c r="T54">
+        <v>1.47</v>
+      </c>
+      <c r="U54">
+        <v>2.84</v>
+      </c>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>1.36</v>
+      </c>
+      <c r="X54">
+        <v>9</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>1.92</v>
+      </c>
+      <c r="AA54">
+        <v>2.02</v>
+      </c>
+      <c r="AB54">
+        <v>10.13</v>
+      </c>
+      <c r="AC54">
+        <v>1.04</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.33</v>
+      </c>
+      <c r="AF54">
+        <v>3</v>
+      </c>
+      <c r="AG54">
+        <v>2.14</v>
+      </c>
+      <c r="AH54">
+        <v>1.75</v>
+      </c>
+      <c r="AI54">
+        <v>2</v>
+      </c>
+      <c r="AJ54">
+        <v>1.73</v>
+      </c>
+      <c r="AK54">
+        <v>1.17</v>
+      </c>
+      <c r="AL54">
+        <v>1.29</v>
+      </c>
+      <c r="AM54">
+        <v>2.15</v>
+      </c>
+      <c r="AN54">
+        <v>2.5</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>2.6</v>
+      </c>
+      <c r="AQ54">
+        <v>0.8</v>
+      </c>
+      <c r="AR54">
+        <v>2.02</v>
+      </c>
+      <c r="AS54">
+        <v>1.44</v>
+      </c>
+      <c r="AT54">
+        <v>3.46</v>
+      </c>
+      <c r="AU54">
+        <v>12</v>
+      </c>
+      <c r="AV54">
+        <v>9</v>
+      </c>
+      <c r="AW54">
+        <v>10</v>
+      </c>
+      <c r="AX54">
+        <v>4</v>
+      </c>
+      <c r="AY54">
+        <v>22</v>
+      </c>
+      <c r="AZ54">
+        <v>13</v>
+      </c>
+      <c r="BA54">
+        <v>4</v>
+      </c>
+      <c r="BB54">
+        <v>4</v>
+      </c>
+      <c r="BC54">
+        <v>8</v>
+      </c>
+      <c r="BD54">
+        <v>1.51</v>
+      </c>
+      <c r="BE54">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF54">
+        <v>3.1</v>
+      </c>
+      <c r="BG54">
+        <v>1.29</v>
+      </c>
+      <c r="BH54">
+        <v>3.14</v>
+      </c>
+      <c r="BI54">
+        <v>1.56</v>
+      </c>
+      <c r="BJ54">
+        <v>2.27</v>
+      </c>
+      <c r="BK54">
+        <v>1.97</v>
+      </c>
+      <c r="BL54">
+        <v>1.78</v>
+      </c>
+      <c r="BM54">
+        <v>2.57</v>
+      </c>
+      <c r="BN54">
+        <v>1.44</v>
+      </c>
+      <c r="BO54">
+        <v>3.48</v>
+      </c>
+      <c r="BP54">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>
